--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28270176453491</v>
+        <v>21.28270176453487</v>
       </c>
       <c r="C2">
-        <v>14.93719450955579</v>
+        <v>14.93719450955588</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.85129373278578</v>
+        <v>15.85129373278606</v>
       </c>
       <c r="F2">
-        <v>64.43042176285864</v>
+        <v>64.43042176285911</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.80747698980243</v>
+        <v>35.80747698980286</v>
       </c>
       <c r="J2">
-        <v>18.86587521979517</v>
+        <v>18.86587521979516</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64721053117858</v>
+        <v>19.64721053117854</v>
       </c>
       <c r="C3">
-        <v>13.7818901189171</v>
+        <v>13.78189011891728</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.67662677576416</v>
+        <v>14.67662677576417</v>
       </c>
       <c r="F3">
-        <v>59.47537070820584</v>
+        <v>59.47537070820575</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.25069608490694</v>
+        <v>33.25069608490686</v>
       </c>
       <c r="J3">
-        <v>17.43538078006483</v>
+        <v>17.43538078006488</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60579878647262</v>
+        <v>18.6057987864727</v>
       </c>
       <c r="C4">
-        <v>13.04909975234514</v>
+        <v>13.04909975234509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.96788207370452</v>
+        <v>13.96788207370438</v>
       </c>
       <c r="F4">
-        <v>56.34735854488228</v>
+        <v>56.34735854488163</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.65289324237617</v>
+        <v>31.65289324237556</v>
       </c>
       <c r="J4">
-        <v>16.5247561225863</v>
+        <v>16.52475612258635</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17149494261003</v>
+        <v>18.17149494261</v>
       </c>
       <c r="C5">
-        <v>12.74408184596157</v>
+        <v>12.74408184596164</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.68085097341909</v>
+        <v>13.68085097341917</v>
       </c>
       <c r="F5">
-        <v>55.05768924254772</v>
+        <v>55.05768924254776</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.99360794545725</v>
+        <v>30.99360794545726</v>
       </c>
       <c r="J5">
-        <v>16.14500727591549</v>
+        <v>16.1450072759155</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.09876522228602</v>
+        <v>18.09876522228605</v>
       </c>
       <c r="C6">
-        <v>12.69303388157316</v>
+        <v>12.69303388157327</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.63326260238143</v>
+        <v>13.63326260238157</v>
       </c>
       <c r="F6">
-        <v>54.84799261711208</v>
+        <v>54.84799261711242</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.88361300443941</v>
+        <v>30.88361300443968</v>
       </c>
       <c r="J6">
-        <v>16.08141276173116</v>
+        <v>16.08141276173118</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59998245738849</v>
+        <v>18.5999824573885</v>
       </c>
       <c r="C7">
-        <v>13.04501270399713</v>
+        <v>13.04501270399708</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.96400544694691</v>
+        <v>13.96400544694666</v>
       </c>
       <c r="F7">
-        <v>56.3299463851956</v>
+        <v>56.32994638519542</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.64403625686877</v>
+        <v>31.64403625686857</v>
       </c>
       <c r="J7">
-        <v>16.51967042711088</v>
+        <v>16.51967042711086</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72613891526852</v>
+        <v>20.72613891526851</v>
       </c>
       <c r="C8">
-        <v>14.54337592166234</v>
+        <v>14.54337592166235</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.44277223771965</v>
+        <v>15.44277223771967</v>
       </c>
       <c r="F8">
-        <v>62.73821625604371</v>
+        <v>62.73821625604391</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.93090652421327</v>
+        <v>34.93090652421345</v>
       </c>
       <c r="J8">
-        <v>18.37899115240374</v>
+        <v>18.37899115240377</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63178289877269</v>
+        <v>24.6317828987728</v>
       </c>
       <c r="C9">
-        <v>17.32407108173723</v>
+        <v>17.32407108173706</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.52059451425602</v>
+        <v>18.52059451425614</v>
       </c>
       <c r="F9">
-        <v>74.75443892782046</v>
+        <v>74.75443892782066</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.22643880841831</v>
+        <v>41.22643880841848</v>
       </c>
       <c r="J9">
-        <v>21.79875226222424</v>
+        <v>21.79875226222418</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39816314860111</v>
+        <v>27.39816314860117</v>
       </c>
       <c r="C10">
-        <v>19.32281508445642</v>
+        <v>19.3228150844566</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.04176148724497</v>
+        <v>21.04176148724532</v>
       </c>
       <c r="F10">
-        <v>83.49335850778556</v>
+        <v>83.49335850778611</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.90342218870816</v>
+        <v>45.90342218870866</v>
       </c>
       <c r="J10">
-        <v>24.22749786064586</v>
+        <v>24.22749786064592</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.65323935900038</v>
+        <v>28.65323935900054</v>
       </c>
       <c r="C11">
-        <v>20.23966301122791</v>
+        <v>20.23966301122771</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.29833459941499</v>
+        <v>22.29833459941523</v>
       </c>
       <c r="F11">
-        <v>87.53440870775633</v>
+        <v>87.53440870775671</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.09339474104463</v>
+        <v>48.09339474104503</v>
       </c>
       <c r="J11">
-        <v>25.33197934915047</v>
+        <v>25.33197934915051</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.13035662556137</v>
+        <v>29.13035662556117</v>
       </c>
       <c r="C12">
-        <v>20.59007937880297</v>
+        <v>20.59007937880292</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.79686494140361</v>
+        <v>22.7968649414033</v>
       </c>
       <c r="F12">
-        <v>89.08493206932305</v>
+        <v>89.08493206932229</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.93827952013458</v>
+        <v>48.93827952013382</v>
       </c>
       <c r="J12">
-        <v>25.75235545187289</v>
+        <v>25.75235545187273</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.02747166716453</v>
+        <v>29.02747166716447</v>
       </c>
       <c r="C13">
-        <v>20.51442419497665</v>
+        <v>20.5144241949766</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.68834442808309</v>
+        <v>22.68834442808324</v>
       </c>
       <c r="F13">
-        <v>88.74987534058565</v>
+        <v>88.74987534058586</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.75548823096839</v>
+        <v>48.75548823096872</v>
       </c>
       <c r="J13">
-        <v>25.66168089386645</v>
+        <v>25.66168089386635</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.69243846669325</v>
+        <v>28.69243846669329</v>
       </c>
       <c r="C14">
-        <v>20.26841207056873</v>
+        <v>20.26841207056845</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.33884359808978</v>
+        <v>22.33884359808912</v>
       </c>
       <c r="F14">
-        <v>87.66148671558057</v>
+        <v>87.6614867155796</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.162543304864</v>
+        <v>48.16254330486308</v>
       </c>
       <c r="J14">
-        <v>25.36650561893743</v>
+        <v>25.36650561893739</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48754589936417</v>
+        <v>28.48754589936428</v>
       </c>
       <c r="C15">
-        <v>20.11822017524068</v>
+        <v>20.11822017524095</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.1279761876593</v>
+        <v>22.12797618765963</v>
       </c>
       <c r="F15">
-        <v>86.99785411266949</v>
+        <v>86.99785411267038</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.80162213732723</v>
+        <v>47.80162213732797</v>
       </c>
       <c r="J15">
-        <v>25.1860592087205</v>
+        <v>25.18605920872067</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.31625354415628</v>
+        <v>27.31625354415637</v>
       </c>
       <c r="C16">
         <v>19.26321449683491</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.96237662108224</v>
+        <v>20.96237662108216</v>
       </c>
       <c r="F16">
-        <v>83.23141768207591</v>
+        <v>83.23141768207581</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.76206367870654</v>
+        <v>45.76206367870643</v>
       </c>
       <c r="J16">
-        <v>24.15547898257443</v>
+        <v>24.15547898257451</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.59825126136154</v>
+        <v>26.59825126136164</v>
       </c>
       <c r="C17">
-        <v>18.74192882836303</v>
+        <v>18.74192882836279</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.27950379366</v>
+        <v>20.27950379365994</v>
       </c>
       <c r="F17">
-        <v>80.94410273273081</v>
+        <v>80.9441027327308</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.53076490691979</v>
+        <v>44.53076490691981</v>
       </c>
       <c r="J17">
-        <v>23.52447800898613</v>
+        <v>23.52447800898616</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.18478132364453</v>
+        <v>26.18478132364443</v>
       </c>
       <c r="C18">
-        <v>18.44265247218772</v>
+        <v>18.44265247218778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.89651879895264</v>
+        <v>19.89651879895297</v>
       </c>
       <c r="F18">
-        <v>79.63384559306171</v>
+        <v>79.63384559306233</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.82791266177459</v>
+        <v>43.82791266177514</v>
       </c>
       <c r="J18">
-        <v>23.1613420107517</v>
+        <v>23.16134201075176</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04464464316843</v>
+        <v>26.04464464316847</v>
       </c>
       <c r="C19">
-        <v>18.34136489225194</v>
+        <v>18.34136489225176</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.76835984463611</v>
+        <v>19.76835984463603</v>
       </c>
       <c r="F19">
-        <v>79.19086861010418</v>
+        <v>79.19086861010378</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.59069851211997</v>
+        <v>43.5906985121196</v>
       </c>
       <c r="J19">
-        <v>23.0383015339472</v>
+        <v>23.03830153394719</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.67472072209779</v>
+        <v>26.67472072209781</v>
       </c>
       <c r="C20">
-        <v>18.79735034184822</v>
+        <v>18.79735034184831</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.35114274960951</v>
+        <v>20.35114274960981</v>
       </c>
       <c r="F20">
-        <v>81.18697292343433</v>
+        <v>81.18697292343501</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.66124460678004</v>
+        <v>44.66124460678056</v>
       </c>
       <c r="J20">
-        <v>23.59165659511301</v>
+        <v>23.59165659511305</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.79077260570374</v>
+        <v>28.79077260570394</v>
       </c>
       <c r="C21">
-        <v>20.34056301210594</v>
+        <v>20.34056301210596</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.4408141614126</v>
+        <v>22.44081416141303</v>
       </c>
       <c r="F21">
-        <v>87.98051380405438</v>
+        <v>87.98051380405518</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.33621544535575</v>
+        <v>48.3362154453564</v>
       </c>
       <c r="J21">
-        <v>25.45312618175577</v>
+        <v>25.4531261817559</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18634663651548</v>
+        <v>30.18634663651522</v>
       </c>
       <c r="C22">
-        <v>21.36965161786993</v>
+        <v>21.36965161786996</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.94462093245647</v>
+        <v>23.94462093245586</v>
       </c>
       <c r="F22">
-        <v>92.54749808207812</v>
+        <v>92.54749808207696</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.83439048944034</v>
+        <v>50.83439048943939</v>
       </c>
       <c r="J22">
-        <v>26.68387096926169</v>
+        <v>26.68387096926158</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.43931371684068</v>
+        <v>29.43931371684067</v>
       </c>
       <c r="C23">
-        <v>20.81757817293607</v>
+        <v>20.81757817293605</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.12619067197034</v>
+        <v>23.12619067197069</v>
       </c>
       <c r="F23">
-        <v>90.0934765086772</v>
+        <v>90.09347650867755</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.48922221932008</v>
+        <v>49.48922221932039</v>
       </c>
       <c r="J23">
-        <v>26.02473133032607</v>
+        <v>26.02473133032609</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.6401511619501</v>
+        <v>26.64015116194994</v>
       </c>
       <c r="C24">
-        <v>18.77229312260167</v>
+        <v>18.77229312260143</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.31872532768286</v>
+        <v>20.31872532768251</v>
       </c>
       <c r="F24">
-        <v>81.07715726054454</v>
+        <v>81.0771572605437</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.60223949888365</v>
+        <v>44.60223949888292</v>
       </c>
       <c r="J24">
-        <v>23.56128644576574</v>
+        <v>23.56128644576558</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.5983685626607</v>
+        <v>23.59836856266066</v>
       </c>
       <c r="C25">
-        <v>16.58414475296372</v>
+        <v>16.5841447529637</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.65599097968817</v>
+        <v>17.65599097968837</v>
       </c>
       <c r="F25">
-        <v>71.54151948356213</v>
+        <v>71.54151948356242</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.52734984921614</v>
+        <v>39.52734984921635</v>
       </c>
       <c r="J25">
-        <v>20.89306887994078</v>
+        <v>20.8930688799408</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28270176453487</v>
+        <v>21.28270176453491</v>
       </c>
       <c r="C2">
-        <v>14.93719450955588</v>
+        <v>14.93719450955579</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.85129373278606</v>
+        <v>15.85129373278578</v>
       </c>
       <c r="F2">
-        <v>64.43042176285911</v>
+        <v>64.43042176285864</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.80747698980286</v>
+        <v>35.80747698980243</v>
       </c>
       <c r="J2">
-        <v>18.86587521979516</v>
+        <v>18.86587521979517</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64721053117854</v>
+        <v>19.64721053117858</v>
       </c>
       <c r="C3">
-        <v>13.78189011891728</v>
+        <v>13.7818901189171</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.67662677576417</v>
+        <v>14.67662677576416</v>
       </c>
       <c r="F3">
-        <v>59.47537070820575</v>
+        <v>59.47537070820584</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.25069608490686</v>
+        <v>33.25069608490694</v>
       </c>
       <c r="J3">
-        <v>17.43538078006488</v>
+        <v>17.43538078006483</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6057987864727</v>
+        <v>18.60579878647262</v>
       </c>
       <c r="C4">
-        <v>13.04909975234509</v>
+        <v>13.04909975234514</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.96788207370438</v>
+        <v>13.96788207370452</v>
       </c>
       <c r="F4">
-        <v>56.34735854488163</v>
+        <v>56.34735854488228</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.65289324237556</v>
+        <v>31.65289324237617</v>
       </c>
       <c r="J4">
-        <v>16.52475612258635</v>
+        <v>16.5247561225863</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17149494261</v>
+        <v>18.17149494261003</v>
       </c>
       <c r="C5">
-        <v>12.74408184596164</v>
+        <v>12.74408184596157</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.68085097341917</v>
+        <v>13.68085097341909</v>
       </c>
       <c r="F5">
-        <v>55.05768924254776</v>
+        <v>55.05768924254772</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.99360794545726</v>
+        <v>30.99360794545725</v>
       </c>
       <c r="J5">
-        <v>16.1450072759155</v>
+        <v>16.14500727591549</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.09876522228605</v>
+        <v>18.09876522228602</v>
       </c>
       <c r="C6">
-        <v>12.69303388157327</v>
+        <v>12.69303388157316</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.63326260238157</v>
+        <v>13.63326260238143</v>
       </c>
       <c r="F6">
-        <v>54.84799261711242</v>
+        <v>54.84799261711208</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.88361300443968</v>
+        <v>30.88361300443941</v>
       </c>
       <c r="J6">
-        <v>16.08141276173118</v>
+        <v>16.08141276173116</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5999824573885</v>
+        <v>18.59998245738849</v>
       </c>
       <c r="C7">
-        <v>13.04501270399708</v>
+        <v>13.04501270399713</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.96400544694666</v>
+        <v>13.96400544694691</v>
       </c>
       <c r="F7">
-        <v>56.32994638519542</v>
+        <v>56.3299463851956</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.64403625686857</v>
+        <v>31.64403625686877</v>
       </c>
       <c r="J7">
-        <v>16.51967042711086</v>
+        <v>16.51967042711088</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72613891526851</v>
+        <v>20.72613891526852</v>
       </c>
       <c r="C8">
-        <v>14.54337592166235</v>
+        <v>14.54337592166234</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.44277223771967</v>
+        <v>15.44277223771965</v>
       </c>
       <c r="F8">
-        <v>62.73821625604391</v>
+        <v>62.73821625604371</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.93090652421345</v>
+        <v>34.93090652421327</v>
       </c>
       <c r="J8">
-        <v>18.37899115240377</v>
+        <v>18.37899115240374</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.6317828987728</v>
+        <v>24.63178289877269</v>
       </c>
       <c r="C9">
-        <v>17.32407108173706</v>
+        <v>17.32407108173723</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.52059451425614</v>
+        <v>18.52059451425602</v>
       </c>
       <c r="F9">
-        <v>74.75443892782066</v>
+        <v>74.75443892782046</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.22643880841848</v>
+        <v>41.22643880841831</v>
       </c>
       <c r="J9">
-        <v>21.79875226222418</v>
+        <v>21.79875226222424</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39816314860117</v>
+        <v>27.39816314860111</v>
       </c>
       <c r="C10">
-        <v>19.3228150844566</v>
+        <v>19.32281508445642</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.04176148724532</v>
+        <v>21.04176148724497</v>
       </c>
       <c r="F10">
-        <v>83.49335850778611</v>
+        <v>83.49335850778556</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.90342218870866</v>
+        <v>45.90342218870816</v>
       </c>
       <c r="J10">
-        <v>24.22749786064592</v>
+        <v>24.22749786064586</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.65323935900054</v>
+        <v>28.65323935900038</v>
       </c>
       <c r="C11">
-        <v>20.23966301122771</v>
+        <v>20.23966301122791</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.29833459941523</v>
+        <v>22.29833459941499</v>
       </c>
       <c r="F11">
-        <v>87.53440870775671</v>
+        <v>87.53440870775633</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.09339474104503</v>
+        <v>48.09339474104463</v>
       </c>
       <c r="J11">
-        <v>25.33197934915051</v>
+        <v>25.33197934915047</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.13035662556117</v>
+        <v>29.13035662556137</v>
       </c>
       <c r="C12">
-        <v>20.59007937880292</v>
+        <v>20.59007937880297</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.7968649414033</v>
+        <v>22.79686494140361</v>
       </c>
       <c r="F12">
-        <v>89.08493206932229</v>
+        <v>89.08493206932305</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.93827952013382</v>
+        <v>48.93827952013458</v>
       </c>
       <c r="J12">
-        <v>25.75235545187273</v>
+        <v>25.75235545187289</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.02747166716447</v>
+        <v>29.02747166716453</v>
       </c>
       <c r="C13">
-        <v>20.5144241949766</v>
+        <v>20.51442419497665</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.68834442808324</v>
+        <v>22.68834442808309</v>
       </c>
       <c r="F13">
-        <v>88.74987534058586</v>
+        <v>88.74987534058565</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.75548823096872</v>
+        <v>48.75548823096839</v>
       </c>
       <c r="J13">
-        <v>25.66168089386635</v>
+        <v>25.66168089386645</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.69243846669329</v>
+        <v>28.69243846669325</v>
       </c>
       <c r="C14">
-        <v>20.26841207056845</v>
+        <v>20.26841207056873</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.33884359808912</v>
+        <v>22.33884359808978</v>
       </c>
       <c r="F14">
-        <v>87.6614867155796</v>
+        <v>87.66148671558057</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.16254330486308</v>
+        <v>48.162543304864</v>
       </c>
       <c r="J14">
-        <v>25.36650561893739</v>
+        <v>25.36650561893743</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48754589936428</v>
+        <v>28.48754589936417</v>
       </c>
       <c r="C15">
-        <v>20.11822017524095</v>
+        <v>20.11822017524068</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.12797618765963</v>
+        <v>22.1279761876593</v>
       </c>
       <c r="F15">
-        <v>86.99785411267038</v>
+        <v>86.99785411266949</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.80162213732797</v>
+        <v>47.80162213732723</v>
       </c>
       <c r="J15">
-        <v>25.18605920872067</v>
+        <v>25.1860592087205</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.31625354415637</v>
+        <v>27.31625354415628</v>
       </c>
       <c r="C16">
         <v>19.26321449683491</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.96237662108216</v>
+        <v>20.96237662108224</v>
       </c>
       <c r="F16">
-        <v>83.23141768207581</v>
+        <v>83.23141768207591</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.76206367870643</v>
+        <v>45.76206367870654</v>
       </c>
       <c r="J16">
-        <v>24.15547898257451</v>
+        <v>24.15547898257443</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.59825126136164</v>
+        <v>26.59825126136154</v>
       </c>
       <c r="C17">
-        <v>18.74192882836279</v>
+        <v>18.74192882836303</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.27950379365994</v>
+        <v>20.27950379366</v>
       </c>
       <c r="F17">
-        <v>80.9441027327308</v>
+        <v>80.94410273273081</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.53076490691981</v>
+        <v>44.53076490691979</v>
       </c>
       <c r="J17">
-        <v>23.52447800898616</v>
+        <v>23.52447800898613</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.18478132364443</v>
+        <v>26.18478132364453</v>
       </c>
       <c r="C18">
-        <v>18.44265247218778</v>
+        <v>18.44265247218772</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.89651879895297</v>
+        <v>19.89651879895264</v>
       </c>
       <c r="F18">
-        <v>79.63384559306233</v>
+        <v>79.63384559306171</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.82791266177514</v>
+        <v>43.82791266177459</v>
       </c>
       <c r="J18">
-        <v>23.16134201075176</v>
+        <v>23.1613420107517</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04464464316847</v>
+        <v>26.04464464316843</v>
       </c>
       <c r="C19">
-        <v>18.34136489225176</v>
+        <v>18.34136489225194</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.76835984463603</v>
+        <v>19.76835984463611</v>
       </c>
       <c r="F19">
-        <v>79.19086861010378</v>
+        <v>79.19086861010418</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.5906985121196</v>
+        <v>43.59069851211997</v>
       </c>
       <c r="J19">
-        <v>23.03830153394719</v>
+        <v>23.0383015339472</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.67472072209781</v>
+        <v>26.67472072209779</v>
       </c>
       <c r="C20">
-        <v>18.79735034184831</v>
+        <v>18.79735034184822</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.35114274960981</v>
+        <v>20.35114274960951</v>
       </c>
       <c r="F20">
-        <v>81.18697292343501</v>
+        <v>81.18697292343433</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.66124460678056</v>
+        <v>44.66124460678004</v>
       </c>
       <c r="J20">
-        <v>23.59165659511305</v>
+        <v>23.59165659511301</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.79077260570394</v>
+        <v>28.79077260570374</v>
       </c>
       <c r="C21">
-        <v>20.34056301210596</v>
+        <v>20.34056301210594</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.44081416141303</v>
+        <v>22.4408141614126</v>
       </c>
       <c r="F21">
-        <v>87.98051380405518</v>
+        <v>87.98051380405438</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.3362154453564</v>
+        <v>48.33621544535575</v>
       </c>
       <c r="J21">
-        <v>25.4531261817559</v>
+        <v>25.45312618175577</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18634663651522</v>
+        <v>30.18634663651548</v>
       </c>
       <c r="C22">
-        <v>21.36965161786996</v>
+        <v>21.36965161786993</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.94462093245586</v>
+        <v>23.94462093245647</v>
       </c>
       <c r="F22">
-        <v>92.54749808207696</v>
+        <v>92.54749808207812</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.83439048943939</v>
+        <v>50.83439048944034</v>
       </c>
       <c r="J22">
-        <v>26.68387096926158</v>
+        <v>26.68387096926169</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.43931371684067</v>
+        <v>29.43931371684068</v>
       </c>
       <c r="C23">
-        <v>20.81757817293605</v>
+        <v>20.81757817293607</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.12619067197069</v>
+        <v>23.12619067197034</v>
       </c>
       <c r="F23">
-        <v>90.09347650867755</v>
+        <v>90.0934765086772</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.48922221932039</v>
+        <v>49.48922221932008</v>
       </c>
       <c r="J23">
-        <v>26.02473133032609</v>
+        <v>26.02473133032607</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.64015116194994</v>
+        <v>26.6401511619501</v>
       </c>
       <c r="C24">
-        <v>18.77229312260143</v>
+        <v>18.77229312260167</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.31872532768251</v>
+        <v>20.31872532768286</v>
       </c>
       <c r="F24">
-        <v>81.0771572605437</v>
+        <v>81.07715726054454</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.60223949888292</v>
+        <v>44.60223949888365</v>
       </c>
       <c r="J24">
-        <v>23.56128644576558</v>
+        <v>23.56128644576574</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.59836856266066</v>
+        <v>23.5983685626607</v>
       </c>
       <c r="C25">
-        <v>16.5841447529637</v>
+        <v>16.58414475296372</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.65599097968837</v>
+        <v>17.65599097968817</v>
       </c>
       <c r="F25">
-        <v>71.54151948356242</v>
+        <v>71.54151948356213</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.52734984921635</v>
+        <v>39.52734984921614</v>
       </c>
       <c r="J25">
-        <v>20.8930688799408</v>
+        <v>20.89306887994078</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28270176453491</v>
+        <v>21.11790832271909</v>
       </c>
       <c r="C2">
-        <v>14.93719450955579</v>
+        <v>14.73628470074376</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.85129373278578</v>
+        <v>16.08060620514105</v>
       </c>
       <c r="F2">
-        <v>64.43042176285864</v>
+        <v>64.34650445982328</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.051264604038336</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.80747698980243</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.86587521979517</v>
+        <v>35.82692428016635</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.6777775170175</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64721053117858</v>
+        <v>19.49449107085908</v>
       </c>
       <c r="C3">
-        <v>13.7818901189171</v>
+        <v>13.58882076672213</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.67662677576416</v>
+        <v>14.91415737983353</v>
       </c>
       <c r="F3">
-        <v>59.47537070820584</v>
+        <v>59.41018082208794</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.067819548894355</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.25069608490694</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.43538078006483</v>
+        <v>33.28809461691984</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.25516894657986</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60579878647262</v>
+        <v>18.46093409214835</v>
       </c>
       <c r="C4">
-        <v>13.04909975234514</v>
+        <v>12.86089316445796</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.96788207370452</v>
+        <v>14.21014833983325</v>
       </c>
       <c r="F4">
-        <v>56.34735854488228</v>
+        <v>56.29375810256714</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.078011972691223</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.65289324237617</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.5247561225863</v>
+        <v>31.70175138100516</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.34942023663854</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17149494261003</v>
+        <v>18.02996323875631</v>
       </c>
       <c r="C5">
-        <v>12.74408184596157</v>
+        <v>12.55787921883798</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.68085097341909</v>
+        <v>13.92499178041081</v>
       </c>
       <c r="F5">
-        <v>55.05768924254772</v>
+        <v>55.0350462472219</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.082183502225252</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.99360794545725</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.14500727591549</v>
+        <v>31.04728007141264</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.9716770591974</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.09876522228602</v>
+        <v>17.95779556633947</v>
       </c>
       <c r="C6">
-        <v>12.69303388157316</v>
+        <v>12.50716562217356</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.63326260238143</v>
+        <v>13.87771189625594</v>
       </c>
       <c r="F6">
-        <v>54.84799261711208</v>
+        <v>54.82624222116628</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.082877562633852</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.88361300443941</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.08141276173116</v>
+        <v>30.93809411007177</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.90841697487943</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59998245738849</v>
+        <v>18.45516214978528</v>
       </c>
       <c r="C7">
-        <v>13.04501270399713</v>
+        <v>12.85683303970458</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.96400544694691</v>
+        <v>14.20629719166088</v>
       </c>
       <c r="F7">
-        <v>56.3299463851956</v>
+        <v>56.27641023027677</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.078068144971656</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.64403625686877</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.51967042711088</v>
+        <v>31.69295869320173</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.34436150263571</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72613891526852</v>
+        <v>20.56542972821051</v>
       </c>
       <c r="C8">
-        <v>14.54337592166234</v>
+        <v>14.34516611561631</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.44277223771965</v>
+        <v>15.67499841446519</v>
       </c>
       <c r="F8">
-        <v>62.73821625604371</v>
+        <v>62.66076730906348</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.056974279795524</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.93090652421327</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>18.37899115240374</v>
+        <v>34.956474693571</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.19361220030099</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63178289877269</v>
+        <v>24.44241931428142</v>
       </c>
       <c r="C9">
-        <v>17.32407108173723</v>
+        <v>17.10598097309176</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.52059451425602</v>
+        <v>18.72915141125246</v>
       </c>
       <c r="F9">
-        <v>74.75443892782046</v>
+        <v>74.62820940173587</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.015207985056502</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.22643880841831</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.79875226222424</v>
+        <v>41.20778291303049</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.59329357031693</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39816314860111</v>
+        <v>27.18759039629305</v>
       </c>
       <c r="C10">
-        <v>19.32281508445642</v>
+        <v>19.08877407523761</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.04176148724497</v>
+        <v>21.22728243114723</v>
       </c>
       <c r="F10">
-        <v>83.49335850778556</v>
+        <v>83.32490164699587</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.983139009503073</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.90342218870816</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>24.22749786064586</v>
+        <v>45.84952988863053</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.00585782199237</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.65323935900038</v>
+        <v>28.4324206742935</v>
       </c>
       <c r="C11">
-        <v>20.23966301122791</v>
+        <v>19.99760216912541</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.29833459941499</v>
+        <v>22.47077947620299</v>
       </c>
       <c r="F11">
-        <v>87.53440870775633</v>
+        <v>87.34329070619013</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.96787314198209</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.09339474104463</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>25.33197934915047</v>
+        <v>48.0214620691069</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.10219366902639</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.13035662556137</v>
+        <v>28.90549592485164</v>
       </c>
       <c r="C12">
-        <v>20.59007937880297</v>
+        <v>20.34480405386536</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.79686494140361</v>
+        <v>22.9637760181364</v>
       </c>
       <c r="F12">
-        <v>89.08493206932305</v>
+        <v>88.88443101828307</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.961948338459267</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.93827952013458</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>25.75235545187289</v>
+        <v>48.85902067022113</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.51930446183935</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.02747166716453</v>
+        <v>28.80349034489485</v>
       </c>
       <c r="C13">
-        <v>20.51442419497665</v>
+        <v>20.2698505584336</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.68834442808309</v>
+        <v>22.85647794637503</v>
       </c>
       <c r="F13">
-        <v>88.74987534058565</v>
+        <v>88.55143762868273</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.963231693565246</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.75548823096839</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>25.66168089386645</v>
+        <v>48.67783379488896</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.42934268116401</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.69243846669325</v>
+        <v>28.47129106905559</v>
       </c>
       <c r="C14">
-        <v>20.26841207056873</v>
+        <v>20.02609085243063</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.33884359808978</v>
+        <v>22.51084652931769</v>
       </c>
       <c r="F14">
-        <v>87.66148671558057</v>
+        <v>87.46961523307758</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.967388921430686</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.162543304864</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>25.36650561893743</v>
+        <v>48.09001942125136</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.13645544540549</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48754589936417</v>
+        <v>28.26811033496294</v>
       </c>
       <c r="C15">
-        <v>20.11822017524068</v>
+        <v>19.87725286759201</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.1279761876593</v>
+        <v>22.30226509666304</v>
       </c>
       <c r="F15">
-        <v>86.99785411266949</v>
+        <v>86.80988813648636</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.969914910911219</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.80162213732723</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>25.1860592087205</v>
+        <v>47.73216836401157</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.95738434727662</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.31625354415628</v>
+        <v>27.10633265354705</v>
       </c>
       <c r="C16">
-        <v>19.26321449683491</v>
+        <v>19.02967721602095</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.96237662108224</v>
+        <v>21.14868462267832</v>
       </c>
       <c r="F16">
-        <v>83.23141768207591</v>
+        <v>83.06434989970823</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.984119440330366</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.76206367870654</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>24.15547898257443</v>
+        <v>45.70929474202956</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.93435045447516</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.59825126136154</v>
+        <v>26.39397041883312</v>
       </c>
       <c r="C17">
-        <v>18.74192882836303</v>
+        <v>18.51271580738819</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.27950379366</v>
+        <v>20.47240506303905</v>
       </c>
       <c r="F17">
-        <v>80.94410273273081</v>
+        <v>80.78880144640986</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.992631829905721</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.53076490691979</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>23.52447800898613</v>
+        <v>44.48760144416934</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.30773956047968</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.18478132364453</v>
+        <v>25.9836942265641</v>
       </c>
       <c r="C18">
-        <v>18.44265247218772</v>
+        <v>18.21586022260625</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.89651879895264</v>
+        <v>20.09298502636404</v>
       </c>
       <c r="F18">
-        <v>79.63384559306171</v>
+        <v>79.48501201307067</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.997467704808281</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.82791266177459</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>23.1613420107517</v>
+        <v>43.79010131162259</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.94706022453564</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04464464316843</v>
+        <v>25.84463203886562</v>
       </c>
       <c r="C19">
-        <v>18.34136489225194</v>
+        <v>18.1153824086182</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.76835984463611</v>
+        <v>19.96599867138643</v>
       </c>
       <c r="F19">
-        <v>79.19086861010418</v>
+        <v>79.04418017374608</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.999095861396679</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.59069851211997</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>23.0383015339472</v>
+        <v>43.55467426767725</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.82484133500909</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.67472072209779</v>
+        <v>26.46984512847195</v>
       </c>
       <c r="C20">
-        <v>18.79735034184822</v>
+        <v>18.56768425465592</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.35114274960951</v>
+        <v>20.54336683089393</v>
       </c>
       <c r="F20">
-        <v>81.18697292343433</v>
+        <v>81.03045183041853</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.991732188550658</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.66124460678004</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23.59165659511301</v>
+        <v>44.6170776516702</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.37445827898311</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.79077260570374</v>
+        <v>28.56879801884355</v>
       </c>
       <c r="C21">
-        <v>20.34056301210594</v>
+        <v>20.09758575083189</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.4408141614126</v>
+        <v>22.6116986574096</v>
       </c>
       <c r="F21">
-        <v>87.98051380405438</v>
+        <v>87.78673876092078</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.96617221119466</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.33621544535575</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>25.45312618175577</v>
+        <v>48.26220025145057</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.22240958935749</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18634663651548</v>
+        <v>29.95218183492284</v>
       </c>
       <c r="C22">
-        <v>21.36965161786993</v>
+        <v>21.11687514509879</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.94462093245647</v>
+        <v>24.09795396727185</v>
       </c>
       <c r="F22">
-        <v>92.54749808207812</v>
+        <v>92.32439865072416</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.948591341010003</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.83439048944034</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>26.68387096926169</v>
+        <v>50.73778307790411</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.44320134818728</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.43931371684068</v>
+        <v>29.21178502770559</v>
       </c>
       <c r="C23">
-        <v>20.81757817293607</v>
+        <v>20.5701661222892</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.12619067197034</v>
+        <v>23.28932922748469</v>
       </c>
       <c r="F23">
-        <v>90.0934765086772</v>
+        <v>89.88663964065196</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.958075408691686</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.48922221932008</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>26.02473133032607</v>
+        <v>49.40505906719508</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.78950991101573</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.6401511619501</v>
+        <v>26.43554460215053</v>
       </c>
       <c r="C24">
-        <v>18.77229312260167</v>
+        <v>18.54283206553314</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.31872532768286</v>
+        <v>20.51125625468421</v>
       </c>
       <c r="F24">
-        <v>81.07715726054454</v>
+        <v>80.92118854708497</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.992139093861078</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.60223949888365</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>23.56128644576574</v>
+        <v>44.55852673919186</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.34429624073238</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.5983685626607</v>
+        <v>23.41663964650412</v>
       </c>
       <c r="C25">
-        <v>16.58414475296372</v>
+        <v>16.37155527054323</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.65599097968817</v>
+        <v>17.8716269736918</v>
       </c>
       <c r="F25">
-        <v>71.54151948356213</v>
+        <v>71.42911858848557</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.026649654260621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.52734984921614</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>20.89306887994078</v>
+        <v>39.5207985301908</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.69317861041073</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>12.22449749786673</v>
+      </c>
+      <c r="C2">
+        <v>6.630136720942456</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>16.67444417314229</v>
+      </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>31.49416220988482</v>
+      </c>
+      <c r="G2">
+        <v>2.106513428931869</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.225657265854519</v>
+      </c>
+      <c r="K2">
+        <v>10.88559556481208</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>14.44621841714511</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>15.84449757972895</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>11.44792897758236</v>
+      </c>
+      <c r="C3">
+        <v>6.406387929382475</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>15.88050685528903</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>30.58310432789519</v>
+      </c>
+      <c r="G3">
+        <v>2.11138581697818</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.278966247880613</v>
+      </c>
+      <c r="K3">
+        <v>10.31264052998149</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13.70404340909081</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>15.99900632986249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10.94409681594854</v>
+      </c>
+      <c r="C4">
+        <v>6.265017683640614</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>15.38188515091272</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>30.03726370184012</v>
+      </c>
+      <c r="G4">
+        <v>2.114464835958738</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.312524188950214</v>
+      </c>
+      <c r="K4">
+        <v>9.944009712558827</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.23330144828032</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>16.10778026043663</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>10.73198031027287</v>
+      </c>
+      <c r="C5">
+        <v>6.20645801359213</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>15.17615601653852</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>29.81847571392943</v>
+      </c>
+      <c r="G5">
+        <v>2.115742103450687</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.326413532670124</v>
+      </c>
+      <c r="K5">
+        <v>9.789625766077165</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.03790472758909</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>16.15543933955679</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10.69634773024313</v>
+      </c>
+      <c r="C6">
+        <v>6.196678494859991</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>15.14185018907913</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>29.78237332959169</v>
+      </c>
+      <c r="G6">
+        <v>2.115955570611129</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.328732969704117</v>
+      </c>
+      <c r="K6">
+        <v>9.76374131659146</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.00525104551189</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>16.16354977309338</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>10.94126367841454</v>
+      </c>
+      <c r="C7">
+        <v>6.264231700611865</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>15.37912050667367</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>30.03429797097027</v>
+      </c>
+      <c r="G7">
+        <v>2.114481969617779</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.312710629784951</v>
+      </c>
+      <c r="K7">
+        <v>9.941944391640435</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.23068037980883</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>16.10840972270547</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11.96233668468341</v>
+      </c>
+      <c r="C8">
+        <v>6.553845383099564</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>16.40315295831832</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>31.17735915350629</v>
+      </c>
+      <c r="G8">
+        <v>2.108175654172502</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.243870784022102</v>
+      </c>
+      <c r="K8">
+        <v>10.69157069659277</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>14.19355688060242</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>15.89478496700342</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>13.75106617925721</v>
+      </c>
+      <c r="C9">
+        <v>7.088146343890029</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>18.31333752751264</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>33.5162546824103</v>
+      </c>
+      <c r="G9">
+        <v>2.096474488575128</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.115117686182111</v>
+      </c>
+      <c r="K9">
+        <v>12.02583026025428</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>15.95479660100111</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>15.59399850090204</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>14.93659759333615</v>
+      </c>
+      <c r="C10">
+        <v>7.457965643580046</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>19.64701703741369</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>35.2813859234985</v>
+      </c>
+      <c r="G10">
+        <v>2.08824246859111</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.023863820959475</v>
+      </c>
+      <c r="K10">
+        <v>12.92145210695566</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>17.38270440496298</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>15.45643494313175</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>15.44844085700834</v>
+      </c>
+      <c r="C11">
+        <v>7.62091574891017</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>20.23719338471383</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>36.0922847889896</v>
+      </c>
+      <c r="G11">
+        <v>2.084567046791517</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4.982965324239691</v>
+      </c>
+      <c r="K11">
+        <v>13.31035193956832</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>18.00364537904513</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>15.41462981252497</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>15.6383554768222</v>
+      </c>
+      <c r="C12">
+        <v>7.681838506166853</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>20.45822547410303</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>36.40033813512009</v>
+      </c>
+      <c r="G12">
+        <v>2.083184380509423</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4.96755658303448</v>
+      </c>
+      <c r="K12">
+        <v>13.45495319287458</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>18.23419474397033</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.40201958220706</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>15.59762715917899</v>
+      </c>
+      <c r="C13">
+        <v>7.668752837370339</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>20.4107324021599</v>
+      </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>36.33395175541953</v>
+      </c>
+      <c r="G13">
+        <v>2.08348177008424</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4.970871793666849</v>
+      </c>
+      <c r="K13">
+        <v>13.42392928747968</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>18.18474468634999</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.40458837278899</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>15.46414335425893</v>
+      </c>
+      <c r="C14">
+        <v>7.625943706855605</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>20.25542738059943</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>36.11760959888673</v>
+      </c>
+      <c r="G14">
+        <v>2.084453115915263</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.981696119166759</v>
+      </c>
+      <c r="K14">
+        <v>13.32230180386094</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>18.02270433947797</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15.41352644778901</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>15.38187280601227</v>
+      </c>
+      <c r="C15">
+        <v>7.599619315850517</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>20.1599770046548</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>35.98521774281593</v>
+      </c>
+      <c r="G15">
+        <v>2.085049257195503</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.988336275707971</v>
+      </c>
+      <c r="K15">
+        <v>13.25970480734025</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>17.92285466365337</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>15.4194277655669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>14.90259813112016</v>
+      </c>
+      <c r="C16">
+        <v>7.447208065122421</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>19.60810775931549</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>35.22853725366633</v>
+      </c>
+      <c r="G16">
+        <v>2.088483991507044</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.026548173570682</v>
+      </c>
+      <c r="K16">
+        <v>12.89566340033098</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>17.341478600818</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>15.45960473795421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>14.60157201957687</v>
+      </c>
+      <c r="C17">
+        <v>7.352337511140019</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>19.26525694201939</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>34.76624838968032</v>
+      </c>
+      <c r="G17">
+        <v>2.090608277443771</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.050140431437159</v>
+      </c>
+      <c r="K17">
+        <v>12.6675866783326</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>16.97657633075741</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>15.48973541427751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>14.42584236831665</v>
+      </c>
+      <c r="C18">
+        <v>7.297274317502001</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>19.06650601060753</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>34.50110621057731</v>
+      </c>
+      <c r="G18">
+        <v>2.091836693060294</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.063768416544316</v>
+      </c>
+      <c r="K18">
+        <v>12.53465911337052</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>16.76364132643432</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>15.50900646749841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>14.36589780538088</v>
+      </c>
+      <c r="C19">
+        <v>7.278546443809902</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>18.9989486475432</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>34.41146843821259</v>
+      </c>
+      <c r="G19">
+        <v>2.092253768644158</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.068392919061707</v>
+      </c>
+      <c r="K19">
+        <v>12.48935284660676</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>16.69101880551482</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>15.51585768106271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>14.63388427540277</v>
+      </c>
+      <c r="C20">
+        <v>7.362488179151322</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>19.30191530816713</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>34.81538301335455</v>
+      </c>
+      <c r="G20">
+        <v>2.090381468201474</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.047623024248243</v>
+      </c>
+      <c r="K20">
+        <v>12.69204636737616</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>17.01573626939367</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>15.48632543980139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>15.50345654530632</v>
+      </c>
+      <c r="C21">
+        <v>7.638539194585809</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>20.30111134619269</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>36.18112893655868</v>
+      </c>
+      <c r="G21">
+        <v>2.084167567121522</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4.978514697984723</v>
+      </c>
+      <c r="K21">
+        <v>13.35222461528965</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>18.07042344332425</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15.41081180894249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>16.04900708097475</v>
+      </c>
+      <c r="C22">
+        <v>7.814383822316574</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>20.93981752646837</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>37.07940584116179</v>
+      </c>
+      <c r="G22">
+        <v>2.08015924360915</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4.933801794711297</v>
+      </c>
+      <c r="K22">
+        <v>13.76815013266969</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>18.73301851868791</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.38034553378348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>15.75990537247105</v>
+      </c>
+      <c r="C23">
+        <v>7.720956842372388</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>20.60025782559215</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>36.59950213141575</v>
+      </c>
+      <c r="G23">
+        <v>2.082294020998736</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4.957627770883321</v>
+      </c>
+      <c r="K23">
+        <v>13.54758358971098</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>18.38179827997152</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.39479832708671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>14.61928421064102</v>
+      </c>
+      <c r="C24">
+        <v>7.357900682644858</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>19.28534716719257</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>34.79316726337877</v>
+      </c>
+      <c r="G24">
+        <v>2.090483986372228</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.048760942477011</v>
+      </c>
+      <c r="K24">
+        <v>12.68099375825675</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>16.99804187114274</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>15.48786103759413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>13.28989457374792</v>
+      </c>
+      <c r="C25">
+        <v>6.947456829375</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>17.80824108726985</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>32.87446446926565</v>
+      </c>
+      <c r="G25">
+        <v>2.099572789968148</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.14932677108762</v>
+      </c>
+      <c r="K25">
+        <v>11.67965545587322</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>15.49284537091662</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>15.66158394248246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22449749786673</v>
+        <v>8.970205258459627</v>
       </c>
       <c r="C2">
-        <v>6.630136720942456</v>
+        <v>5.305302056174891</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.67444417314229</v>
+        <v>20.27290231388671</v>
       </c>
       <c r="F2">
-        <v>31.49416220988482</v>
+        <v>41.26409604810227</v>
       </c>
       <c r="G2">
-        <v>2.106513428931869</v>
+        <v>3.656083476421752</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.225657265854519</v>
+        <v>8.483964644306925</v>
       </c>
       <c r="K2">
-        <v>10.88559556481208</v>
+        <v>8.253613472711759</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.44621841714511</v>
+        <v>17.46786279019956</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.84449757972895</v>
+        <v>24.35991104550933</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.44792897758236</v>
+        <v>8.703134417172292</v>
       </c>
       <c r="C3">
-        <v>6.406387929382475</v>
+        <v>5.208580668762067</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.88050685528903</v>
+        <v>20.15962001895475</v>
       </c>
       <c r="F3">
-        <v>30.58310432789519</v>
+        <v>41.22998143551515</v>
       </c>
       <c r="G3">
-        <v>2.11138581697818</v>
+        <v>3.657846231962177</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.278966247880613</v>
+        <v>8.500914905619117</v>
       </c>
       <c r="K3">
-        <v>10.31264052998149</v>
+        <v>8.074554752496875</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.70404340909081</v>
+        <v>17.3429975434606</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.99900632986249</v>
+        <v>24.46385021059953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.94409681594854</v>
+        <v>8.536299678792405</v>
       </c>
       <c r="C4">
-        <v>6.265017683640614</v>
+        <v>5.147851050857881</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.38188515091272</v>
+        <v>20.09387016523802</v>
       </c>
       <c r="F4">
-        <v>30.03726370184012</v>
+        <v>41.21945345361361</v>
       </c>
       <c r="G4">
-        <v>2.114464835958738</v>
+        <v>3.658985186785564</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.312524188950214</v>
+        <v>8.511844397578335</v>
       </c>
       <c r="K4">
-        <v>9.944009712558827</v>
+        <v>7.963646665297169</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.23330144828032</v>
+        <v>17.26883611297267</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.10778026043663</v>
+        <v>24.53275304325943</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.73198031027287</v>
+        <v>8.467701973254696</v>
       </c>
       <c r="C5">
-        <v>6.20645801359213</v>
+        <v>5.122786493359867</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.17615601653852</v>
+        <v>20.06805464939224</v>
       </c>
       <c r="F5">
-        <v>29.81847571392943</v>
+        <v>41.21778639649991</v>
       </c>
       <c r="G5">
-        <v>2.115742103450687</v>
+        <v>3.65946360144546</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.326413532670124</v>
+        <v>8.516429907700921</v>
       </c>
       <c r="K5">
-        <v>9.789625766077165</v>
+        <v>7.918269542494857</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.03790472758909</v>
+        <v>17.23927047784229</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.15543933955679</v>
+        <v>24.56210786271533</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69634773024313</v>
+        <v>8.45627770060903</v>
       </c>
       <c r="C6">
-        <v>6.196678494859991</v>
+        <v>5.118606035743578</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.14185018907913</v>
+        <v>20.06382766290533</v>
       </c>
       <c r="F6">
-        <v>29.78237332959169</v>
+        <v>41.21766807505197</v>
       </c>
       <c r="G6">
-        <v>2.115955570611129</v>
+        <v>3.659543905710552</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.328732969704117</v>
+        <v>8.517199291515368</v>
       </c>
       <c r="K6">
-        <v>9.76374131659146</v>
+        <v>7.910725603788659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.00525104551189</v>
+        <v>17.2344014567702</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.16354977309338</v>
+        <v>24.56705923878046</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94126367841454</v>
+        <v>8.535376875486175</v>
       </c>
       <c r="C7">
-        <v>6.264231700611865</v>
+        <v>5.147514275883328</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.37912050667367</v>
+        <v>20.09351802123033</v>
       </c>
       <c r="F7">
-        <v>30.03429797097027</v>
+        <v>41.21942034705409</v>
       </c>
       <c r="G7">
-        <v>2.114481969617779</v>
+        <v>3.658991580969294</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.312710629784951</v>
+        <v>8.511905705780318</v>
       </c>
       <c r="K7">
-        <v>9.941944391640435</v>
+        <v>7.963035344224521</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.23068037980883</v>
+        <v>17.26843469247461</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.10840972270547</v>
+        <v>24.5331437673585</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.96233668468341</v>
+        <v>8.878772537153599</v>
       </c>
       <c r="C8">
-        <v>6.553845383099564</v>
+        <v>5.27224331985339</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.40315295831832</v>
+        <v>20.23306572004115</v>
       </c>
       <c r="F8">
-        <v>31.17735915350629</v>
+        <v>41.25017357288316</v>
       </c>
       <c r="G8">
-        <v>2.108175654172502</v>
+        <v>3.656679550959674</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.243870784022102</v>
+        <v>8.48970100351602</v>
       </c>
       <c r="K8">
-        <v>10.69157069659277</v>
+        <v>8.192110616847103</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.19355688060242</v>
+        <v>17.42430468281679</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.89478496700342</v>
+        <v>24.39469293255363</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75106617925721</v>
+        <v>9.525259204136855</v>
       </c>
       <c r="C9">
-        <v>7.088146343890029</v>
+        <v>5.505318464939883</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.31333752751264</v>
+        <v>20.53592694647902</v>
       </c>
       <c r="F9">
-        <v>33.5162546824103</v>
+        <v>41.39291366257164</v>
       </c>
       <c r="G9">
-        <v>2.096474488575128</v>
+        <v>3.652592837963502</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.115117686182111</v>
+        <v>8.450280711537008</v>
       </c>
       <c r="K9">
-        <v>12.02583026025428</v>
+        <v>8.63108286592559</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.95479660100111</v>
+        <v>17.74868497682676</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.59399850090204</v>
+        <v>24.16361803971573</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.93659759333615</v>
+        <v>9.97863659699027</v>
       </c>
       <c r="C10">
-        <v>7.457965643580046</v>
+        <v>5.668443032946427</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.64701703741369</v>
+        <v>20.77483344334064</v>
       </c>
       <c r="F10">
-        <v>35.2813859234985</v>
+        <v>41.54759999950593</v>
       </c>
       <c r="G10">
-        <v>2.08824246859111</v>
+        <v>3.649860060537856</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.023863820959475</v>
+        <v>8.423806061380578</v>
       </c>
       <c r="K10">
-        <v>12.92145210695566</v>
+        <v>8.944083439854834</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.38270440496298</v>
+        <v>17.99679906682165</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.45643494313175</v>
+        <v>24.01861498029422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44844085700834</v>
+        <v>10.17925722581177</v>
       </c>
       <c r="C11">
-        <v>7.62091574891017</v>
+        <v>5.740678666954232</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.23719338471383</v>
+        <v>20.886753756367</v>
       </c>
       <c r="F11">
-        <v>36.0922847889896</v>
+        <v>41.62865103083018</v>
       </c>
       <c r="G11">
-        <v>2.084567046791517</v>
+        <v>3.648674806391598</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.982965324239691</v>
+        <v>8.412296616681623</v>
       </c>
       <c r="K11">
-        <v>13.31035193956832</v>
+        <v>9.083779707536575</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.00364537904513</v>
+        <v>18.11144020608674</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.41462981252497</v>
+        <v>23.95805409640557</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.6383554768222</v>
+        <v>10.25434997066928</v>
       </c>
       <c r="C12">
-        <v>7.681838506166853</v>
+        <v>5.767732714325401</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.45822547410303</v>
+        <v>20.92957228565679</v>
       </c>
       <c r="F12">
-        <v>36.40033813512009</v>
+        <v>41.66086418680336</v>
       </c>
       <c r="G12">
-        <v>2.083184380509423</v>
+        <v>3.648234261158259</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.96755658303448</v>
+        <v>8.408014661771041</v>
       </c>
       <c r="K12">
-        <v>13.45495319287458</v>
+        <v>9.136244251371473</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.23419474397033</v>
+        <v>18.15507588993456</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.40201958220706</v>
+        <v>23.93590035477809</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.59762715917899</v>
+        <v>10.23821747934623</v>
       </c>
       <c r="C13">
-        <v>7.668752837370339</v>
+        <v>5.76191973855425</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.4107324021599</v>
+        <v>20.92033159902011</v>
       </c>
       <c r="F13">
-        <v>36.33395175541953</v>
+        <v>41.65385913207093</v>
       </c>
       <c r="G13">
-        <v>2.08348177008424</v>
+        <v>3.64832877264055</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.970871793666849</v>
+        <v>8.408933464306573</v>
       </c>
       <c r="K13">
-        <v>13.42392928747968</v>
+        <v>9.124965176503267</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.18474468634999</v>
+        <v>18.14566872292388</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.40458837278899</v>
+        <v>23.94063685625532</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46414335425893</v>
+        <v>10.18545311809818</v>
       </c>
       <c r="C14">
-        <v>7.625943706855605</v>
+        <v>5.74291052418929</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.25542738059943</v>
+        <v>20.89026787992988</v>
       </c>
       <c r="F14">
-        <v>36.11760959888673</v>
+        <v>41.63127084107355</v>
       </c>
       <c r="G14">
-        <v>2.084453115915263</v>
+        <v>3.648638396664701</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.981696119166759</v>
+        <v>8.411942808157843</v>
       </c>
       <c r="K14">
-        <v>13.32230180386094</v>
+        <v>9.088104989912846</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.02270433947797</v>
+        <v>18.11502583976509</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.41352644778901</v>
+        <v>23.95621586053771</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38187280601227</v>
+        <v>10.15301715422047</v>
       </c>
       <c r="C15">
-        <v>7.599619315850517</v>
+        <v>5.731227283866768</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.1599770046548</v>
+        <v>20.87190897870418</v>
       </c>
       <c r="F15">
-        <v>35.98521774281593</v>
+        <v>41.61763243373337</v>
       </c>
       <c r="G15">
-        <v>2.085049257195503</v>
+        <v>3.64882912802816</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.988336275707971</v>
+        <v>8.413796059703705</v>
       </c>
       <c r="K15">
-        <v>13.25970480734025</v>
+        <v>9.065468972750324</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.92285466365337</v>
+        <v>18.09628437008288</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.4194277655669</v>
+        <v>23.96586002196254</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.90259813112016</v>
+        <v>9.965406325157383</v>
       </c>
       <c r="C16">
-        <v>7.447208065122421</v>
+        <v>5.663681163800923</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.60810775931549</v>
+        <v>20.7675819131494</v>
       </c>
       <c r="F16">
-        <v>35.22853725366633</v>
+        <v>41.5425168350291</v>
       </c>
       <c r="G16">
-        <v>2.088483991507044</v>
+        <v>3.649938681253626</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.026548173570682</v>
+        <v>8.4245689447571</v>
       </c>
       <c r="K16">
-        <v>12.89566340033098</v>
+        <v>8.934895605229075</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.341478600818</v>
+        <v>17.98933999782004</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.45960473795421</v>
+        <v>24.02268169414915</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.60157201957687</v>
+        <v>9.848821330815957</v>
       </c>
       <c r="C17">
-        <v>7.352337511140019</v>
+        <v>5.621726914079749</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.26525694201939</v>
+        <v>20.70439006105823</v>
       </c>
       <c r="F17">
-        <v>34.76624838968032</v>
+        <v>41.49916185303933</v>
       </c>
       <c r="G17">
-        <v>2.090608277443771</v>
+        <v>3.650634156410373</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.050140431437159</v>
+        <v>8.431314270305391</v>
       </c>
       <c r="K17">
-        <v>12.6675866783326</v>
+        <v>8.854068561775236</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.97657633075741</v>
+        <v>17.92416492673398</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.48973541427751</v>
+        <v>24.05892530103661</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.42584236831665</v>
+        <v>9.781239136888543</v>
       </c>
       <c r="C18">
-        <v>7.297274317502001</v>
+        <v>5.597411390590267</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.06650601060753</v>
+        <v>20.6683505998494</v>
       </c>
       <c r="F18">
-        <v>34.50110621057731</v>
+        <v>41.47523184323443</v>
       </c>
       <c r="G18">
-        <v>2.091836693060294</v>
+        <v>3.651039627588786</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.063768416544316</v>
+        <v>8.43524428814681</v>
       </c>
       <c r="K18">
-        <v>12.53465911337052</v>
+        <v>8.807328553309238</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.76364132643432</v>
+        <v>17.88684671149664</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.50900646749841</v>
+        <v>24.08027994633381</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36589780538088</v>
+        <v>9.758268928086304</v>
       </c>
       <c r="C19">
-        <v>7.278546443809902</v>
+        <v>5.589147400607251</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.9989486475432</v>
+        <v>20.65620183263457</v>
       </c>
       <c r="F19">
-        <v>34.41146843821259</v>
+        <v>41.46730287718903</v>
       </c>
       <c r="G19">
-        <v>2.092253768644158</v>
+        <v>3.651177850854325</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.068392919061707</v>
+        <v>8.436583572404082</v>
       </c>
       <c r="K19">
-        <v>12.48935284660676</v>
+        <v>8.79146171738452</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.69101880551482</v>
+        <v>17.87424134087477</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.51585768106271</v>
+        <v>24.08759748147834</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.63388427540277</v>
+        <v>9.861286924058557</v>
       </c>
       <c r="C20">
-        <v>7.362488179151322</v>
+        <v>5.626212239704762</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.30191530816713</v>
+        <v>20.71108539621446</v>
       </c>
       <c r="F20">
-        <v>34.81538301335455</v>
+        <v>41.50367298731707</v>
       </c>
       <c r="G20">
-        <v>2.090381468201474</v>
+        <v>3.650559557903132</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.047623024248243</v>
+        <v>8.430591017245714</v>
       </c>
       <c r="K20">
-        <v>12.69204636737616</v>
+        <v>8.862699020733855</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.01573626939367</v>
+        <v>17.93108568438083</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.48632543980139</v>
+        <v>24.05501448327649</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50345654530632</v>
+        <v>10.2009756342111</v>
       </c>
       <c r="C21">
-        <v>7.638539194585809</v>
+        <v>5.748502261169701</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.30111134619269</v>
+        <v>20.89908670694842</v>
       </c>
       <c r="F21">
-        <v>36.18112893655868</v>
+        <v>41.63786442594608</v>
       </c>
       <c r="G21">
-        <v>2.084167567121522</v>
+        <v>3.64854722806372</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.978514697984723</v>
+        <v>8.411056819764241</v>
       </c>
       <c r="K21">
-        <v>13.35222461528965</v>
+        <v>9.098943907900276</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.07042344332425</v>
+        <v>18.12402058069667</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.41081180894249</v>
+        <v>23.95161875730301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.04900708097475</v>
+        <v>10.41783735869874</v>
       </c>
       <c r="C22">
-        <v>7.814383822316574</v>
+        <v>5.82667013713024</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.93981752646837</v>
+        <v>21.02448799309592</v>
       </c>
       <c r="F22">
-        <v>37.07940584116179</v>
+        <v>41.73442261933106</v>
       </c>
       <c r="G22">
-        <v>2.08015924360915</v>
+        <v>3.647280325397546</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.933801794711297</v>
+        <v>8.398735369921754</v>
       </c>
       <c r="K22">
-        <v>13.76815013266969</v>
+        <v>9.250785583148028</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.73301851868791</v>
+        <v>18.25140316007824</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.38034553378348</v>
+        <v>23.88858753409274</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.75990537247105</v>
+        <v>10.30258598185515</v>
       </c>
       <c r="C23">
-        <v>7.720956842372388</v>
+        <v>5.785116348356155</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.60025782559215</v>
+        <v>20.95733717966865</v>
       </c>
       <c r="F23">
-        <v>36.59950213141575</v>
+        <v>41.68208294947743</v>
       </c>
       <c r="G23">
-        <v>2.082294020998736</v>
+        <v>3.647952091891714</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.957627770883321</v>
+        <v>8.405270937357182</v>
       </c>
       <c r="K23">
-        <v>13.54758358971098</v>
+        <v>9.169994081325468</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.38179827997152</v>
+        <v>18.18330919730467</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.39479832708671</v>
+        <v>23.92181186285289</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.61928421064102</v>
+        <v>9.855652955601023</v>
       </c>
       <c r="C24">
-        <v>7.357900682644858</v>
+        <v>5.624185031569519</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.28534716719257</v>
+        <v>20.7080575284694</v>
       </c>
       <c r="F24">
-        <v>34.79316726337877</v>
+        <v>41.50163040188592</v>
       </c>
       <c r="G24">
-        <v>2.090483986372228</v>
+        <v>3.650593266337634</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.048760942477011</v>
+        <v>8.430917837819802</v>
       </c>
       <c r="K24">
-        <v>12.68099375825675</v>
+        <v>8.858798032050009</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.99804187114274</v>
+        <v>17.92795633460749</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.48786103759413</v>
+        <v>24.05678095149849</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28989457374792</v>
+        <v>9.353814529434487</v>
       </c>
       <c r="C25">
-        <v>6.947456829375</v>
+        <v>5.443615333244051</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.80824108726985</v>
+        <v>20.45100898336532</v>
       </c>
       <c r="F25">
-        <v>32.87446446926565</v>
+        <v>41.34551055190084</v>
       </c>
       <c r="G25">
-        <v>2.099572789968148</v>
+        <v>3.653650827952025</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.14932677108762</v>
+        <v>8.460506250293413</v>
       </c>
       <c r="K25">
-        <v>11.67965545587322</v>
+        <v>8.513774906472912</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.49284537091662</v>
+        <v>17.65909178116968</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.66158394248246</v>
+        <v>24.2217893843412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.970205258459627</v>
+        <v>12.22449749786679</v>
       </c>
       <c r="C2">
-        <v>5.305302056174891</v>
+        <v>6.630136720942652</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.27290231388671</v>
+        <v>16.67444417314229</v>
       </c>
       <c r="F2">
-        <v>41.26409604810227</v>
+        <v>31.49416220988473</v>
       </c>
       <c r="G2">
-        <v>3.656083476421752</v>
+        <v>2.106513428931868</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.483964644306925</v>
+        <v>5.22565726585452</v>
       </c>
       <c r="K2">
-        <v>8.253613472711759</v>
+        <v>10.88559556481216</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.46786279019956</v>
+        <v>14.4462184171451</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.35991104550933</v>
+        <v>15.84449757972882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.703134417172292</v>
+        <v>11.4479289775823</v>
       </c>
       <c r="C3">
-        <v>5.208580668762067</v>
+        <v>6.406387929382699</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.15962001895475</v>
+        <v>15.88050685528906</v>
       </c>
       <c r="F3">
-        <v>41.22998143551515</v>
+        <v>30.58310432789525</v>
       </c>
       <c r="G3">
-        <v>3.657846231962177</v>
+        <v>2.111385816978314</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.500914905619117</v>
+        <v>5.27896624788058</v>
       </c>
       <c r="K3">
-        <v>8.074554752496875</v>
+        <v>10.3126405299815</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.3429975434606</v>
+        <v>13.70404340909083</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.46385021059953</v>
+        <v>15.99900632986249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.536299678792405</v>
+        <v>10.9440968159485</v>
       </c>
       <c r="C4">
-        <v>5.147851050857881</v>
+        <v>6.265017683640646</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.09387016523802</v>
+        <v>15.38188515091272</v>
       </c>
       <c r="F4">
-        <v>41.21945345361361</v>
+        <v>30.03726370184009</v>
       </c>
       <c r="G4">
-        <v>3.658985186785564</v>
+        <v>2.114464835958738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.511844397578335</v>
+        <v>5.312524188950214</v>
       </c>
       <c r="K4">
-        <v>7.963646665297169</v>
+        <v>9.944009712558834</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.26883611297267</v>
+        <v>13.23330144828033</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.53275304325943</v>
+        <v>16.10778026043662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.467701973254696</v>
+        <v>10.73198031027298</v>
       </c>
       <c r="C5">
-        <v>5.122786493359867</v>
+        <v>6.206458013592005</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.06805464939224</v>
+        <v>15.17615601653854</v>
       </c>
       <c r="F5">
-        <v>41.21778639649991</v>
+        <v>29.81847571392943</v>
       </c>
       <c r="G5">
-        <v>3.65946360144546</v>
+        <v>2.115742103450688</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.516429907700921</v>
+        <v>5.326413532670022</v>
       </c>
       <c r="K5">
-        <v>7.918269542494857</v>
+        <v>9.78962576607724</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.23927047784229</v>
+        <v>13.03790472758906</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.56210786271533</v>
+        <v>16.15543933955668</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.45627770060903</v>
+        <v>10.69634773024318</v>
       </c>
       <c r="C6">
-        <v>5.118606035743578</v>
+        <v>6.196678494860114</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.06382766290533</v>
+        <v>15.14185018907919</v>
       </c>
       <c r="F6">
-        <v>41.21766807505197</v>
+        <v>29.78237332959161</v>
       </c>
       <c r="G6">
-        <v>3.659543905710552</v>
+        <v>2.115955570611129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.517199291515368</v>
+        <v>5.328732969704051</v>
       </c>
       <c r="K6">
-        <v>7.910725603788659</v>
+        <v>9.763741316591528</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.2344014567702</v>
+        <v>13.00525104551189</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.56705923878046</v>
+        <v>16.16354977309318</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.535376875486175</v>
+        <v>10.94126367841453</v>
       </c>
       <c r="C7">
-        <v>5.147514275883328</v>
+        <v>6.264231700611855</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.09351802123033</v>
+        <v>15.37912050667367</v>
       </c>
       <c r="F7">
-        <v>41.21942034705409</v>
+        <v>30.03429797097026</v>
       </c>
       <c r="G7">
-        <v>3.658991580969294</v>
+        <v>2.114481969617779</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.511905705780318</v>
+        <v>5.312710629784986</v>
       </c>
       <c r="K7">
-        <v>7.963035344224521</v>
+        <v>9.941944391640401</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.26843469247461</v>
+        <v>13.23068037980884</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.5331437673585</v>
+        <v>16.10840972270548</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.878772537153599</v>
+        <v>11.9623366846834</v>
       </c>
       <c r="C8">
-        <v>5.27224331985339</v>
+        <v>6.553845383099587</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.23306572004115</v>
+        <v>16.4031529583183</v>
       </c>
       <c r="F8">
-        <v>41.25017357288316</v>
+        <v>31.17735915350634</v>
       </c>
       <c r="G8">
-        <v>3.656679550959674</v>
+        <v>2.108175654172502</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.48970100351602</v>
+        <v>5.243870784022135</v>
       </c>
       <c r="K8">
-        <v>8.192110616847103</v>
+        <v>10.69157069659278</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.42430468281679</v>
+        <v>14.19355688060241</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.39469293255363</v>
+        <v>15.89478496700346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.525259204136855</v>
+        <v>13.75106617925732</v>
       </c>
       <c r="C9">
-        <v>5.505318464939883</v>
+        <v>7.088146343890029</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.53592694647902</v>
+        <v>18.31333752751264</v>
       </c>
       <c r="F9">
-        <v>41.39291366257164</v>
+        <v>33.51625468241027</v>
       </c>
       <c r="G9">
-        <v>3.652592837963502</v>
+        <v>2.096474488575262</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.450280711537008</v>
+        <v>5.115117686182111</v>
       </c>
       <c r="K9">
-        <v>8.63108286592559</v>
+        <v>12.02583026025435</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.74868497682676</v>
+        <v>15.95479660100111</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.16361803971573</v>
+        <v>15.59399850090204</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.97863659699027</v>
+        <v>14.93659759333618</v>
       </c>
       <c r="C10">
-        <v>5.668443032946427</v>
+        <v>7.45796564358006</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.77483344334064</v>
+        <v>19.64701703741373</v>
       </c>
       <c r="F10">
-        <v>41.54759999950593</v>
+        <v>35.2813859234985</v>
       </c>
       <c r="G10">
-        <v>3.649860060537856</v>
+        <v>2.088242468590977</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.423806061380578</v>
+        <v>5.023863820959376</v>
       </c>
       <c r="K10">
-        <v>8.944083439854834</v>
+        <v>12.92145210695566</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.99679906682165</v>
+        <v>17.38270440496297</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.01861498029422</v>
+        <v>15.45643494313171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.17925722581177</v>
+        <v>15.44844085700831</v>
       </c>
       <c r="C11">
-        <v>5.740678666954232</v>
+        <v>7.620915748910299</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.886753756367</v>
+        <v>20.23719338471382</v>
       </c>
       <c r="F11">
-        <v>41.62865103083018</v>
+        <v>36.09228478898959</v>
       </c>
       <c r="G11">
-        <v>3.648674806391598</v>
+        <v>2.08456704679125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.412296616681623</v>
+        <v>4.982965324239759</v>
       </c>
       <c r="K11">
-        <v>9.083779707536575</v>
+        <v>13.31035193956834</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.11144020608674</v>
+        <v>18.00364537904513</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.95805409640557</v>
+        <v>15.41462981252505</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.25434997066928</v>
+        <v>15.63835547682225</v>
       </c>
       <c r="C12">
-        <v>5.767732714325401</v>
+        <v>7.681838506167018</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.92957228565679</v>
+        <v>20.45822547410308</v>
       </c>
       <c r="F12">
-        <v>41.66086418680336</v>
+        <v>36.40033813512012</v>
       </c>
       <c r="G12">
-        <v>3.648234261158259</v>
+        <v>2.083184380509421</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.408014661771041</v>
+        <v>4.967556583034415</v>
       </c>
       <c r="K12">
-        <v>9.136244251371473</v>
+        <v>13.45495319287464</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.15507588993456</v>
+        <v>18.23419474397033</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.93590035477809</v>
+        <v>15.40201958220693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.23821747934623</v>
+        <v>15.59762715917907</v>
       </c>
       <c r="C13">
-        <v>5.76191973855425</v>
+        <v>7.668752837370452</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.92033159902011</v>
+        <v>20.41073240215992</v>
       </c>
       <c r="F13">
-        <v>41.65385913207093</v>
+        <v>36.33395175541951</v>
       </c>
       <c r="G13">
-        <v>3.64832877264055</v>
+        <v>2.083481770084238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.408933464306573</v>
+        <v>4.970871793666917</v>
       </c>
       <c r="K13">
-        <v>9.124965176503267</v>
+        <v>13.42392928747977</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.14566872292388</v>
+        <v>18.18474468635</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.94063685625532</v>
+        <v>15.40458837278892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.18545311809818</v>
+        <v>15.46414335425909</v>
       </c>
       <c r="C14">
-        <v>5.74291052418929</v>
+        <v>7.625943706855468</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.89026787992988</v>
+        <v>20.25542738059944</v>
       </c>
       <c r="F14">
-        <v>41.63127084107355</v>
+        <v>36.11760959888671</v>
       </c>
       <c r="G14">
-        <v>3.648638396664701</v>
+        <v>2.08445311591513</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.411942808157843</v>
+        <v>4.981696119166691</v>
       </c>
       <c r="K14">
-        <v>9.088104989912846</v>
+        <v>13.32230180386105</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.11502583976509</v>
+        <v>18.02270433947798</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.95621586053771</v>
+        <v>15.41352644778885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.15301715422047</v>
+        <v>15.3818728060123</v>
       </c>
       <c r="C15">
-        <v>5.731227283866768</v>
+        <v>7.599619315850617</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.87190897870418</v>
+        <v>20.15997700465482</v>
       </c>
       <c r="F15">
-        <v>41.61763243373337</v>
+        <v>35.98521774281592</v>
       </c>
       <c r="G15">
-        <v>3.64882912802816</v>
+        <v>2.085049257195636</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.413796059703705</v>
+        <v>4.988336275707907</v>
       </c>
       <c r="K15">
-        <v>9.065468972750324</v>
+        <v>13.25970480734027</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.09628437008288</v>
+        <v>17.92285466365337</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.96586002196254</v>
+        <v>15.41942776556682</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.965406325157383</v>
+        <v>14.9025981311202</v>
       </c>
       <c r="C16">
-        <v>5.663681163800923</v>
+        <v>7.447208065122688</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.7675819131494</v>
+        <v>19.60810775931553</v>
       </c>
       <c r="F16">
-        <v>41.5425168350291</v>
+        <v>35.22853725366635</v>
       </c>
       <c r="G16">
-        <v>3.649938681253626</v>
+        <v>2.08848399150691</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.4245689447571</v>
+        <v>5.026548173570582</v>
       </c>
       <c r="K16">
-        <v>8.934895605229075</v>
+        <v>12.89566340033107</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.98933999782004</v>
+        <v>17.341478600818</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.02268169414915</v>
+        <v>15.45960473795399</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.848821330815957</v>
+        <v>14.60157201957683</v>
       </c>
       <c r="C17">
-        <v>5.621726914079749</v>
+        <v>7.352337511140031</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.70439006105823</v>
+        <v>19.26525694201942</v>
       </c>
       <c r="F17">
-        <v>41.49916185303933</v>
+        <v>34.76624838968041</v>
       </c>
       <c r="G17">
-        <v>3.650634156410373</v>
+        <v>2.090608277443774</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.431314270305391</v>
+        <v>5.050140431437292</v>
       </c>
       <c r="K17">
-        <v>8.854068561775236</v>
+        <v>12.66758667833257</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.92416492673398</v>
+        <v>16.9765763307574</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.05892530103661</v>
+        <v>15.48973541427769</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.781239136888543</v>
+        <v>14.42584236831657</v>
       </c>
       <c r="C18">
-        <v>5.597411390590267</v>
+        <v>7.297274317502215</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.6683505998494</v>
+        <v>19.06650601060751</v>
       </c>
       <c r="F18">
-        <v>41.47523184323443</v>
+        <v>34.50110621057722</v>
       </c>
       <c r="G18">
-        <v>3.651039627588786</v>
+        <v>2.091836693060159</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.43524428814681</v>
+        <v>5.063768416544283</v>
       </c>
       <c r="K18">
-        <v>8.807328553309238</v>
+        <v>12.53465911337049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.88684671149664</v>
+        <v>16.76364132643432</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.08027994633381</v>
+        <v>15.50900646749831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.758268928086304</v>
+        <v>14.36589780538087</v>
       </c>
       <c r="C19">
-        <v>5.589147400607251</v>
+        <v>7.278546443809916</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.65620183263457</v>
+        <v>18.99894864754317</v>
       </c>
       <c r="F19">
-        <v>41.46730287718903</v>
+        <v>34.41146843821259</v>
       </c>
       <c r="G19">
-        <v>3.651177850854325</v>
+        <v>2.092253768644292</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.436583572404082</v>
+        <v>5.068392919061676</v>
       </c>
       <c r="K19">
-        <v>8.79146171738452</v>
+        <v>12.48935284660677</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.87424134087477</v>
+        <v>16.69101880551483</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.08759748147834</v>
+        <v>15.51585768106273</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.861286924058557</v>
+        <v>14.63388427540275</v>
       </c>
       <c r="C20">
-        <v>5.626212239704762</v>
+        <v>7.362488179151399</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.71108539621446</v>
+        <v>19.30191530816711</v>
       </c>
       <c r="F20">
-        <v>41.50367298731707</v>
+        <v>34.81538301335458</v>
       </c>
       <c r="G20">
-        <v>3.650559557903132</v>
+        <v>2.090381468201342</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.430591017245714</v>
+        <v>5.047623024248312</v>
       </c>
       <c r="K20">
-        <v>8.862699020733855</v>
+        <v>12.69204636737616</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.93108568438083</v>
+        <v>17.01573626939367</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.05501448327649</v>
+        <v>15.48632543980149</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.2009756342111</v>
+        <v>15.50345654530637</v>
       </c>
       <c r="C21">
-        <v>5.748502261169701</v>
+        <v>7.638539194585532</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.89908670694842</v>
+        <v>20.30111134619267</v>
       </c>
       <c r="F21">
-        <v>41.63786442594608</v>
+        <v>36.18112893655871</v>
       </c>
       <c r="G21">
-        <v>3.64854722806372</v>
+        <v>2.084167567121256</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.411056819764241</v>
+        <v>4.978514697984623</v>
       </c>
       <c r="K21">
-        <v>9.098943907900276</v>
+        <v>13.35222461528965</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.12402058069667</v>
+        <v>18.07042344332426</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.95161875730301</v>
+        <v>15.41081180894247</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.41783735869874</v>
+        <v>16.04900708097472</v>
       </c>
       <c r="C22">
-        <v>5.82667013713024</v>
+        <v>7.814383822316577</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.02448799309592</v>
+        <v>20.93981752646835</v>
       </c>
       <c r="F22">
-        <v>41.73442261933106</v>
+        <v>37.07940584116179</v>
       </c>
       <c r="G22">
-        <v>3.647280325397546</v>
+        <v>2.080159243609418</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.398735369921754</v>
+        <v>4.933801794711264</v>
       </c>
       <c r="K22">
-        <v>9.250785583148028</v>
+        <v>13.76815013266964</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.25140316007824</v>
+        <v>18.73301851868791</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.88858753409274</v>
+        <v>15.38034553378358</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.30258598185515</v>
+        <v>15.75990537247108</v>
       </c>
       <c r="C23">
-        <v>5.785116348356155</v>
+        <v>7.720956842372376</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.95733717966865</v>
+        <v>20.6002578255922</v>
       </c>
       <c r="F23">
-        <v>41.68208294947743</v>
+        <v>36.59950213141578</v>
       </c>
       <c r="G23">
-        <v>3.647952091891714</v>
+        <v>2.082294020998736</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.405270937357182</v>
+        <v>4.957627770883287</v>
       </c>
       <c r="K23">
-        <v>9.169994081325468</v>
+        <v>13.54758358971099</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.18330919730467</v>
+        <v>18.38179827997151</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.92181186285289</v>
+        <v>15.39479832708669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.855652955601023</v>
+        <v>14.61928421064104</v>
       </c>
       <c r="C24">
-        <v>5.624185031569519</v>
+        <v>7.357900682644935</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.7080575284694</v>
+        <v>19.2853471671926</v>
       </c>
       <c r="F24">
-        <v>41.50163040188592</v>
+        <v>34.79316726337878</v>
       </c>
       <c r="G24">
-        <v>3.650593266337634</v>
+        <v>2.090483986372494</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.430917837819802</v>
+        <v>5.048760942476944</v>
       </c>
       <c r="K24">
-        <v>8.858798032050009</v>
+        <v>12.68099375825678</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.92795633460749</v>
+        <v>16.99804187114277</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.05678095149849</v>
+        <v>15.48786103759406</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.353814529434487</v>
+        <v>13.28989457374782</v>
       </c>
       <c r="C25">
-        <v>5.443615333244051</v>
+        <v>6.94745682937539</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.45100898336532</v>
+        <v>17.80824108726985</v>
       </c>
       <c r="F25">
-        <v>41.34551055190084</v>
+        <v>32.8744644692658</v>
       </c>
       <c r="G25">
-        <v>3.653650827952025</v>
+        <v>2.099572789968013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.460506250293413</v>
+        <v>5.149326771087619</v>
       </c>
       <c r="K25">
-        <v>8.513774906472912</v>
+        <v>11.67965545587325</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.65909178116968</v>
+        <v>15.4928453709166</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.2217893843412</v>
+        <v>15.66158394248262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22449749786679</v>
+        <v>21.17682758886856</v>
       </c>
       <c r="C2">
-        <v>6.630136720942652</v>
+        <v>14.52112602318567</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.67444417314229</v>
+        <v>7.735249460472393</v>
       </c>
       <c r="F2">
-        <v>31.49416220988473</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.106513428931868</v>
+        <v>29.37055095339802</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.545556780727607</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.165631305220929</v>
       </c>
       <c r="J2">
-        <v>5.22565726585452</v>
+        <v>10.4295869451288</v>
       </c>
       <c r="K2">
-        <v>10.88559556481216</v>
+        <v>16.19461835559042</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.4462184171451</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.584009663547978</v>
       </c>
       <c r="O2">
-        <v>15.84449757972882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.7590042345178</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.4479289775823</v>
+        <v>19.77020596509453</v>
       </c>
       <c r="C3">
-        <v>6.406387929382699</v>
+        <v>13.69942478708769</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.88050685528906</v>
+        <v>7.592295875141181</v>
       </c>
       <c r="F3">
-        <v>30.58310432789525</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.111385816978314</v>
+        <v>28.69466658113999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.775184950771204</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.36672523347826</v>
       </c>
       <c r="J3">
-        <v>5.27896624788058</v>
+        <v>10.41808911940526</v>
       </c>
       <c r="K3">
-        <v>10.3126405299815</v>
+        <v>16.31187310866358</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.70404340909083</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.400510145608199</v>
       </c>
       <c r="O3">
-        <v>15.99900632986249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.11296101211642</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.9440968159485</v>
+        <v>18.85378906798176</v>
       </c>
       <c r="C4">
-        <v>6.265017683640646</v>
+        <v>13.17269389166766</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.38188515091272</v>
+        <v>7.502072546161527</v>
       </c>
       <c r="F4">
-        <v>30.03726370184009</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.114464835958738</v>
+        <v>28.28478668267809</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.920728745393328</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.494874443472065</v>
       </c>
       <c r="J4">
-        <v>5.312524188950214</v>
+        <v>10.41455512211526</v>
       </c>
       <c r="K4">
-        <v>9.944009712558834</v>
+        <v>16.38810981993504</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.23330144828033</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.285208769609361</v>
       </c>
       <c r="O4">
-        <v>16.10778026043662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.69917319843532</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.73198031027298</v>
+        <v>18.46673526543015</v>
       </c>
       <c r="C5">
-        <v>6.206458013592005</v>
+        <v>12.96067403641449</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.17615601653854</v>
+        <v>7.463985013667752</v>
       </c>
       <c r="F5">
-        <v>29.81847571392943</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.115742103450688</v>
+        <v>28.080481312692</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.981599140856497</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.551002980359477</v>
       </c>
       <c r="J5">
-        <v>5.326413532670022</v>
+        <v>10.40704957645099</v>
       </c>
       <c r="K5">
-        <v>9.78962576607724</v>
+        <v>16.40757079592523</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.03790472758906</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.237874005321122</v>
       </c>
       <c r="O5">
-        <v>16.15543933955668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.52685654075652</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69634773024318</v>
+        <v>18.40131812243843</v>
       </c>
       <c r="C6">
-        <v>6.196678494860114</v>
+        <v>12.93512023909921</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.14185018907919</v>
+        <v>7.456792478172764</v>
       </c>
       <c r="F6">
-        <v>29.78237332959161</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.115955570611129</v>
+        <v>27.9993820547387</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.992256255292096</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.56387208158972</v>
       </c>
       <c r="J6">
-        <v>5.328732969704051</v>
+        <v>10.39740847695361</v>
       </c>
       <c r="K6">
-        <v>9.763741316591528</v>
+        <v>16.39547865320949</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.00525104551189</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.230319582383264</v>
       </c>
       <c r="O6">
-        <v>16.16354977309318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.49856714713441</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94126367841453</v>
+        <v>18.84771011454482</v>
       </c>
       <c r="C7">
-        <v>6.264231700611855</v>
+        <v>13.19660085165389</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.37912050667367</v>
+        <v>7.499347776665918</v>
       </c>
       <c r="F7">
-        <v>30.03429797097026</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.114481969617779</v>
+        <v>28.1539034861386</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.922827579972626</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.504854250817184</v>
       </c>
       <c r="J7">
-        <v>5.312710629784986</v>
+        <v>10.39142901201952</v>
       </c>
       <c r="K7">
-        <v>9.941944391640401</v>
+        <v>16.34632995645519</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.23068037980884</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.285509965669596</v>
       </c>
       <c r="O7">
-        <v>16.10840972270548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.69838291922604</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.9623366846834</v>
+        <v>20.7015926854159</v>
       </c>
       <c r="C8">
-        <v>6.553845383099587</v>
+        <v>14.27559392014655</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.4031529583183</v>
+        <v>7.683747494618305</v>
       </c>
       <c r="F8">
-        <v>31.17735915350634</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.108175654172502</v>
+        <v>28.97194433590876</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.625394044945061</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.245900547344587</v>
       </c>
       <c r="J8">
-        <v>5.243870784022135</v>
+        <v>10.39466890714875</v>
       </c>
       <c r="K8">
-        <v>10.69157069659278</v>
+        <v>16.17856666424482</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.19355688060241</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.522552487642706</v>
       </c>
       <c r="O8">
-        <v>15.89478496700346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.54171249762847</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75106617925732</v>
+        <v>23.92301586000495</v>
       </c>
       <c r="C9">
-        <v>7.088146343890029</v>
+        <v>16.17034803104173</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.31333752751264</v>
+        <v>8.030554171745226</v>
       </c>
       <c r="F9">
-        <v>33.51625468241027</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.096474488575262</v>
+        <v>30.83284167933543</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.075046971163055</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.759206551967655</v>
       </c>
       <c r="J9">
-        <v>5.115117686182111</v>
+        <v>10.47157542122642</v>
       </c>
       <c r="K9">
-        <v>12.02583026025435</v>
+        <v>15.96144282836992</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.95479660100111</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.963454005692456</v>
       </c>
       <c r="O9">
-        <v>15.59399850090204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.05235414032134</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.93659759333618</v>
+        <v>26.05672525649659</v>
       </c>
       <c r="C10">
-        <v>7.45796564358006</v>
+        <v>17.53284788581056</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.64701703741373</v>
+        <v>8.274263184636082</v>
       </c>
       <c r="F10">
-        <v>35.2813859234985</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.088242468590977</v>
+        <v>31.61042106340825</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.724204584694175</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.534245220968868</v>
       </c>
       <c r="J10">
-        <v>5.023863820959376</v>
+        <v>10.43012563779507</v>
       </c>
       <c r="K10">
-        <v>12.92145210695566</v>
+        <v>15.61300697624733</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.38270440496297</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.17085680004743</v>
       </c>
       <c r="O10">
-        <v>15.45643494313171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.99983821861396</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44844085700831</v>
+        <v>27.11573146551765</v>
       </c>
       <c r="C11">
-        <v>7.620915748910299</v>
+        <v>18.76027073500644</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.23719338471382</v>
+        <v>8.607766563517135</v>
       </c>
       <c r="F11">
-        <v>36.09228478898959</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.08456704679125</v>
+        <v>27.08792577919831</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.733234273802585</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.63796472845456</v>
       </c>
       <c r="J11">
-        <v>4.982965324239759</v>
+        <v>9.472278884018815</v>
       </c>
       <c r="K11">
-        <v>13.31035193956834</v>
+        <v>13.82820613185274</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.00364537904513</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.436553333435034</v>
       </c>
       <c r="O11">
-        <v>15.41462981252505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.7911582953279</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63835547682225</v>
+        <v>27.58164746486658</v>
       </c>
       <c r="C12">
-        <v>7.681838506167018</v>
+        <v>19.50294390233502</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.45822547410308</v>
+        <v>9.124833080468504</v>
       </c>
       <c r="F12">
-        <v>36.40033813512012</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.083184380509421</v>
+        <v>23.26745042376911</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.128550055059502</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.65963919826155</v>
       </c>
       <c r="J12">
-        <v>4.967556583034415</v>
+        <v>8.735068292101529</v>
       </c>
       <c r="K12">
-        <v>13.45495319287464</v>
+        <v>12.65213732262201</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.23419474397033</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.853499248643123</v>
       </c>
       <c r="O12">
-        <v>15.40201958220693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.4085740796852</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.59762715917907</v>
+        <v>27.63406439007133</v>
       </c>
       <c r="C13">
-        <v>7.668752837370452</v>
+        <v>19.96972781013619</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.41073240215992</v>
+        <v>9.766969041654267</v>
       </c>
       <c r="F13">
-        <v>36.33395175541951</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.083481770084238</v>
+        <v>19.5468948975326</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.563108910474653</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.624343491078328</v>
       </c>
       <c r="J13">
-        <v>4.970871793666917</v>
+        <v>8.100844479820788</v>
       </c>
       <c r="K13">
-        <v>13.42392928747977</v>
+        <v>11.87845861858582</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.18474468635</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.373629302286822</v>
       </c>
       <c r="O13">
-        <v>15.40458837278892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.86042795730015</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46414335425909</v>
+        <v>27.4848137501031</v>
       </c>
       <c r="C14">
-        <v>7.625943706855468</v>
+        <v>20.1859875832631</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.25542738059944</v>
+        <v>10.285166136682</v>
       </c>
       <c r="F14">
-        <v>36.11760959888671</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.08445311591513</v>
+        <v>17.0013682529505</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.578279389883135</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.575706959669704</v>
       </c>
       <c r="J14">
-        <v>4.981696119166691</v>
+        <v>7.717946612352044</v>
       </c>
       <c r="K14">
-        <v>13.32230180386105</v>
+        <v>11.58815501294154</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.02270433947798</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.116762511340228</v>
       </c>
       <c r="O14">
-        <v>15.41352644778885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.39493493533885</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.3818728060123</v>
+        <v>27.35874368269064</v>
       </c>
       <c r="C15">
-        <v>7.599619315850617</v>
+        <v>20.18777557186819</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.15997700465482</v>
+        <v>10.40477268389929</v>
       </c>
       <c r="F15">
-        <v>35.98521774281592</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.085049257195636</v>
+        <v>16.38029389438979</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.81523067740409</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.552595747282979</v>
       </c>
       <c r="J15">
-        <v>4.988336275707907</v>
+        <v>7.639460272445908</v>
       </c>
       <c r="K15">
-        <v>13.25970480734027</v>
+        <v>11.57411657468624</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.92285466365337</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.065416011965961</v>
       </c>
       <c r="O15">
-        <v>15.41942776556682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.24620057289971</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.9025981311202</v>
+        <v>26.48605663090678</v>
       </c>
       <c r="C16">
-        <v>7.447208065122688</v>
+        <v>19.58504264529453</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.60810775931553</v>
+        <v>10.17570167831935</v>
       </c>
       <c r="F16">
-        <v>35.22853725366635</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.08848399150691</v>
+        <v>16.65201215657402</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.624586706622924</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.593214170701103</v>
       </c>
       <c r="J16">
-        <v>5.026548173570582</v>
+        <v>7.784779345150546</v>
       </c>
       <c r="K16">
-        <v>12.89566340033107</v>
+        <v>11.89121961299664</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.341478600818</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.060146889929438</v>
       </c>
       <c r="O16">
-        <v>15.45960473795399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.93083130872075</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.60157201957683</v>
+        <v>25.8837408224209</v>
       </c>
       <c r="C17">
-        <v>7.352337511140031</v>
+        <v>18.99133033098037</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.26525694201942</v>
+        <v>9.698755798382882</v>
       </c>
       <c r="F17">
-        <v>34.76624838968041</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.090608277443774</v>
+        <v>18.17767353341483</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.911175107407826</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.672451305605945</v>
       </c>
       <c r="J17">
-        <v>5.050140431437292</v>
+        <v>8.08611612644315</v>
       </c>
       <c r="K17">
-        <v>12.66758667833257</v>
+        <v>12.24812935418321</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.9765763307574</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.178131202801922</v>
       </c>
       <c r="O17">
-        <v>15.48973541427769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.9440871182627</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.42584236831657</v>
+        <v>25.46010787154665</v>
       </c>
       <c r="C18">
-        <v>7.297274317502215</v>
+        <v>18.32984890951426</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.06650601060751</v>
+        <v>9.043470890895428</v>
       </c>
       <c r="F18">
-        <v>34.50110621057722</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.091836693060159</v>
+        <v>21.12781953774802</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.695939556542138</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.695106124731166</v>
       </c>
       <c r="J18">
-        <v>5.063768416544283</v>
+        <v>8.603563992373903</v>
       </c>
       <c r="K18">
-        <v>12.53465911337049</v>
+        <v>12.85789418086949</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.76364132643432</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.494672736384438</v>
       </c>
       <c r="O18">
-        <v>15.50900646749831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.2417135172997</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36589780538087</v>
+        <v>25.21904411079081</v>
       </c>
       <c r="C19">
-        <v>7.278546443809916</v>
+        <v>17.72531566142889</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.99894864754317</v>
+        <v>8.472642822034153</v>
       </c>
       <c r="F19">
-        <v>34.41146843821259</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.092253768644292</v>
+        <v>24.91066125426718</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.273764122174722</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.686263303450524</v>
       </c>
       <c r="J19">
-        <v>5.068392919061676</v>
+        <v>9.27161586425358</v>
       </c>
       <c r="K19">
-        <v>12.48935284660677</v>
+        <v>13.79994855183908</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.69101880551483</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.042430073354156</v>
       </c>
       <c r="O19">
-        <v>15.51585768106273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.74029144180077</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.63388427540275</v>
+        <v>25.51161965700635</v>
       </c>
       <c r="C20">
-        <v>7.362488179151399</v>
+        <v>17.2533215400135</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.30191530816711</v>
+        <v>8.205560678186815</v>
       </c>
       <c r="F20">
-        <v>34.81538301335458</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.090381468201342</v>
+        <v>31.02483261994799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.81750198891676</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.553483334627189</v>
       </c>
       <c r="J20">
-        <v>5.047623024248312</v>
+        <v>10.36598403685266</v>
       </c>
       <c r="K20">
-        <v>12.69204636737616</v>
+        <v>15.56578220853665</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.01573626939367</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.11530871130208</v>
       </c>
       <c r="O20">
-        <v>15.48632543980149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.75705406188031</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50345654530637</v>
+        <v>27.04624823977325</v>
       </c>
       <c r="C21">
-        <v>7.638539194585532</v>
+        <v>18.13975925659412</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.30111134619267</v>
+        <v>8.392481199458699</v>
       </c>
       <c r="F21">
-        <v>36.18112893655871</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.084167567121256</v>
+        <v>32.56703722253497</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.615766120646457</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.713493905589577</v>
       </c>
       <c r="J21">
-        <v>4.978514697984623</v>
+        <v>10.52364509446977</v>
       </c>
       <c r="K21">
-        <v>13.35222461528965</v>
+        <v>15.63725860768132</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.07042344332426</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.426958052041201</v>
       </c>
       <c r="O21">
-        <v>15.41081180894247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.56559719844233</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.04900708097472</v>
+        <v>28.01464084380713</v>
       </c>
       <c r="C22">
-        <v>7.814383822316577</v>
+        <v>18.70966158719497</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.93981752646835</v>
+        <v>8.515130350379724</v>
       </c>
       <c r="F22">
-        <v>37.07940584116179</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.080159243609418</v>
+        <v>33.43187792532932</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.7988259202852</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.867820288865722</v>
       </c>
       <c r="J22">
-        <v>4.933801794711264</v>
+        <v>10.60452219268182</v>
       </c>
       <c r="K22">
-        <v>13.76815013266964</v>
+        <v>15.6456922050717</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.73301851868791</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.573953704613902</v>
       </c>
       <c r="O22">
-        <v>15.38034553378358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.03815829768517</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.75990537247108</v>
+        <v>27.50267031691132</v>
       </c>
       <c r="C23">
-        <v>7.720956842372376</v>
+        <v>18.38333520374524</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.6002578255922</v>
+        <v>8.451650456083486</v>
       </c>
       <c r="F23">
-        <v>36.59950213141578</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.082294020998736</v>
+        <v>33.09847754427155</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.702525362346636</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.781002786380411</v>
       </c>
       <c r="J23">
-        <v>4.957627770883287</v>
+        <v>10.58669524184629</v>
       </c>
       <c r="K23">
-        <v>13.54758358971099</v>
+        <v>15.68958410707761</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.38179827997151</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.494702299481153</v>
       </c>
       <c r="O23">
-        <v>15.39479832708669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.78632087517598</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.61928421064104</v>
+        <v>25.47389385976265</v>
       </c>
       <c r="C24">
-        <v>7.357900682644935</v>
+        <v>17.14433676362713</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.2853471671926</v>
+        <v>8.206025519550707</v>
       </c>
       <c r="F24">
-        <v>34.79316726337878</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.090483986372494</v>
+        <v>31.64403604241913</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.796717906582402</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.53179109445485</v>
       </c>
       <c r="J24">
-        <v>5.048760942476944</v>
+        <v>10.48879208419802</v>
       </c>
       <c r="K24">
-        <v>12.68099375825678</v>
+        <v>15.79326477633911</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.99804187114277</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.189981949281783</v>
       </c>
       <c r="O24">
-        <v>15.48786103759406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.79942587536652</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28989457374782</v>
+        <v>23.094139584677</v>
       </c>
       <c r="C25">
-        <v>6.94745682937539</v>
+        <v>15.71846545507346</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.80824108726985</v>
+        <v>7.935217702583118</v>
       </c>
       <c r="F25">
-        <v>32.8744644692658</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.099572789968013</v>
+        <v>30.11185096385657</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.222341366962514</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.904662918335895</v>
       </c>
       <c r="J25">
-        <v>5.149326771087619</v>
+        <v>10.40668739552805</v>
       </c>
       <c r="K25">
-        <v>11.67965545587325</v>
+        <v>15.94025449434754</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.4928453709166</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.848439632402428</v>
       </c>
       <c r="O25">
-        <v>15.66158394248262</v>
+        <v>13.66157417615196</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17682758886856</v>
+        <v>21.22998063888058</v>
       </c>
       <c r="C2">
-        <v>14.52112602318567</v>
+        <v>14.80271158898455</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.735249460472393</v>
+        <v>7.715449903991582</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>29.37055095339802</v>
+        <v>26.29422190204104</v>
       </c>
       <c r="H2">
-        <v>2.545556780727607</v>
+        <v>2.422884242588857</v>
       </c>
       <c r="I2">
-        <v>3.165631305220929</v>
+        <v>3.014762627105465</v>
       </c>
       <c r="J2">
-        <v>10.4295869451288</v>
+        <v>10.26004313463058</v>
       </c>
       <c r="K2">
-        <v>16.19461835559042</v>
+        <v>15.10071423758402</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.46265933027008</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.865169389223267</v>
       </c>
       <c r="N2">
-        <v>6.584009663547978</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.7590042345178</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.710635209955651</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.7733210371114</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77020596509453</v>
+        <v>19.83385385240438</v>
       </c>
       <c r="C3">
-        <v>13.69942478708769</v>
+        <v>13.90262407846164</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.592295875141181</v>
+        <v>7.594283836243032</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>28.69466658113999</v>
+        <v>25.95292600942788</v>
       </c>
       <c r="H3">
-        <v>2.775184950771204</v>
+        <v>2.629741142359519</v>
       </c>
       <c r="I3">
-        <v>3.36672523347826</v>
+        <v>3.188257549718836</v>
       </c>
       <c r="J3">
-        <v>10.41808911940526</v>
+        <v>10.25604497580907</v>
       </c>
       <c r="K3">
-        <v>16.31187310866358</v>
+        <v>15.30572306945997</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.65889298241044</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.00346477726016</v>
       </c>
       <c r="N3">
-        <v>6.400510145608199</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.11296101211642</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.538415688951507</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.1185554891263</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.85378906798176</v>
+        <v>18.92409311099096</v>
       </c>
       <c r="C4">
-        <v>13.17269389166766</v>
+        <v>13.32429710287988</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.502072546161527</v>
+        <v>7.517973277640325</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>28.28478668267809</v>
+        <v>25.75470410527002</v>
       </c>
       <c r="H4">
-        <v>2.920728745393328</v>
+        <v>2.760938179770508</v>
       </c>
       <c r="I4">
-        <v>3.494874443472065</v>
+        <v>3.299197177386756</v>
       </c>
       <c r="J4">
-        <v>10.41455512211526</v>
+        <v>10.25417657445069</v>
       </c>
       <c r="K4">
-        <v>16.38810981993504</v>
+        <v>15.43417095801888</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.78031252516204</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.10655512184753</v>
       </c>
       <c r="N4">
-        <v>6.285208769609361</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.69917319843532</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.430590555332222</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.69854642717527</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46673526543015</v>
+        <v>18.53983452981829</v>
       </c>
       <c r="C5">
-        <v>12.96067403641449</v>
+        <v>13.08970717716601</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.463985013667752</v>
+        <v>7.485868318370177</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>28.080481312692</v>
+        <v>25.64317053372992</v>
       </c>
       <c r="H5">
-        <v>2.981599140856497</v>
+        <v>2.815831379453402</v>
       </c>
       <c r="I5">
-        <v>3.551002980359477</v>
+        <v>3.348683120117199</v>
       </c>
       <c r="J5">
-        <v>10.40704957645099</v>
+        <v>10.24771577703071</v>
       </c>
       <c r="K5">
-        <v>16.40757079592523</v>
+        <v>15.47700182205929</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.82063212633739</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.14717363289407</v>
       </c>
       <c r="N5">
-        <v>6.237874005321122</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.52685654075652</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.386383105805201</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.52341653233677</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40131812243843</v>
+        <v>18.47490265598112</v>
       </c>
       <c r="C6">
-        <v>12.93512023909921</v>
+        <v>13.05950956223894</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.456792478172764</v>
+        <v>7.479889364561114</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>27.9993820547387</v>
+        <v>25.58394285051661</v>
       </c>
       <c r="H6">
-        <v>2.992256255292096</v>
+        <v>2.825447705101297</v>
       </c>
       <c r="I6">
-        <v>3.56387208158972</v>
+        <v>3.361029846231427</v>
       </c>
       <c r="J6">
-        <v>10.39740847695361</v>
+        <v>10.23952875641251</v>
       </c>
       <c r="K6">
-        <v>16.39547865320949</v>
+        <v>15.47180481983136</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.81588935730204</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.14709921969422</v>
       </c>
       <c r="N6">
-        <v>6.230319582383264</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.49856714713441</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.379283721832671</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.49457522411526</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.84771011454482</v>
+        <v>18.91793036521471</v>
       </c>
       <c r="C7">
-        <v>13.19660085165389</v>
+        <v>13.33330847445849</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.499347776665918</v>
+        <v>7.514682219240338</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.1539034861386</v>
+        <v>25.68428276736133</v>
       </c>
       <c r="H7">
-        <v>2.922827579972626</v>
+        <v>2.763588358218403</v>
       </c>
       <c r="I7">
-        <v>3.504854250817184</v>
+        <v>3.311410829179556</v>
       </c>
       <c r="J7">
-        <v>10.39142901201952</v>
+        <v>10.18733721767595</v>
       </c>
       <c r="K7">
-        <v>16.34632995645519</v>
+        <v>15.3855100978781</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.7360532732113</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.07773850117575</v>
       </c>
       <c r="N7">
-        <v>6.285509965669596</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.69838291922604</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.42974794847656</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.69713632496112</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.7015926854159</v>
+        <v>20.75787757071535</v>
       </c>
       <c r="C8">
-        <v>14.27559392014655</v>
+        <v>14.489883024618</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.683747494618305</v>
+        <v>7.668280469074301</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>28.97194433590876</v>
+        <v>26.1702059577846</v>
       </c>
       <c r="H8">
-        <v>2.625394044945061</v>
+        <v>2.497099291566491</v>
       </c>
       <c r="I8">
-        <v>3.245900547344587</v>
+        <v>3.089975815875094</v>
       </c>
       <c r="J8">
-        <v>10.39466890714875</v>
+        <v>10.07920395436508</v>
       </c>
       <c r="K8">
-        <v>16.17856666424482</v>
+        <v>15.07620707261399</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.45022694091943</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.845000321599864</v>
       </c>
       <c r="N8">
-        <v>6.522552487642706</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.54171249762847</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.649593378558601</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.55167450941427</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.92301586000495</v>
+        <v>23.95351571614818</v>
       </c>
       <c r="C9">
-        <v>16.17034803104173</v>
+        <v>16.55781279787085</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.030554171745226</v>
+        <v>7.962061679206231</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>30.83284167933543</v>
+        <v>27.25539124859436</v>
       </c>
       <c r="H9">
-        <v>2.075046971163055</v>
+        <v>2.002250363360548</v>
       </c>
       <c r="I9">
-        <v>2.759206551967655</v>
+        <v>2.669644455867798</v>
       </c>
       <c r="J9">
-        <v>10.47157542122642</v>
+        <v>10.07544715624489</v>
       </c>
       <c r="K9">
-        <v>15.96144282836992</v>
+        <v>14.60657565011558</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.9969190363425</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.614338335308648</v>
       </c>
       <c r="N9">
-        <v>6.963454005692456</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.05235414032134</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.064981713786636</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.07926196986712</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.05672525649659</v>
+        <v>26.06806688418171</v>
       </c>
       <c r="C10">
-        <v>17.53284788581056</v>
+        <v>17.95492575684711</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.274263184636082</v>
+        <v>8.171889420905819</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>31.61042106340825</v>
+        <v>27.865754158123</v>
       </c>
       <c r="H10">
-        <v>1.724204584694175</v>
+        <v>1.693420102231737</v>
       </c>
       <c r="I10">
-        <v>2.534245220968868</v>
+        <v>2.582121318507852</v>
       </c>
       <c r="J10">
-        <v>10.43012563779507</v>
+        <v>9.736138529629713</v>
       </c>
       <c r="K10">
-        <v>15.61300697624733</v>
+        <v>14.04327593959202</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.50857348647498</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.346401279575213</v>
       </c>
       <c r="N10">
-        <v>7.17085680004743</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.99983821861396</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.250163580630654</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.03173738419372</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.11573146551765</v>
+        <v>27.12278601795343</v>
       </c>
       <c r="C11">
-        <v>18.76027073500644</v>
+        <v>18.93382974840707</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.607766563517135</v>
+        <v>8.528170866699561</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>27.08792577919831</v>
+        <v>24.64513111517017</v>
       </c>
       <c r="H11">
-        <v>2.733234273802585</v>
+        <v>2.724066208286261</v>
       </c>
       <c r="I11">
-        <v>2.63796472845456</v>
+        <v>2.670618281793076</v>
       </c>
       <c r="J11">
-        <v>9.472278884018815</v>
+        <v>8.592932486351243</v>
       </c>
       <c r="K11">
-        <v>13.82820613185274</v>
+        <v>12.60588502358749</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.54451774301042</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.165314473638542</v>
       </c>
       <c r="N11">
-        <v>6.436553333435034</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.7911582953279</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.489284941246187</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.81109793914263</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.58164746486658</v>
+        <v>27.58902713632407</v>
       </c>
       <c r="C12">
-        <v>19.50294390233502</v>
+        <v>19.48737659387903</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.124833080468504</v>
+        <v>9.043458887902018</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>23.26745042376911</v>
+        <v>21.76848039987826</v>
       </c>
       <c r="H12">
-        <v>4.128550055059502</v>
+        <v>4.124246324320183</v>
       </c>
       <c r="I12">
-        <v>2.65963919826155</v>
+        <v>2.687545620811275</v>
       </c>
       <c r="J12">
-        <v>8.735068292101529</v>
+        <v>7.991254261980978</v>
       </c>
       <c r="K12">
-        <v>12.65213732262201</v>
+        <v>11.81168410949087</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.07808276135993</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.423673017076811</v>
       </c>
       <c r="N12">
-        <v>5.853499248643123</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.4085740796852</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.892855041601695</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.41933215919282</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.63406439007133</v>
+        <v>27.64564914708038</v>
       </c>
       <c r="C13">
-        <v>19.96972781013619</v>
+        <v>19.8181842607998</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.766969041654267</v>
+        <v>9.680654890907267</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>19.5468948975326</v>
+        <v>18.68871005146545</v>
       </c>
       <c r="H13">
-        <v>5.563108910474653</v>
+        <v>5.558055572535218</v>
       </c>
       <c r="I13">
-        <v>2.624343491078328</v>
+        <v>2.658232896574031</v>
       </c>
       <c r="J13">
-        <v>8.100844479820788</v>
+        <v>7.721186834833753</v>
       </c>
       <c r="K13">
-        <v>11.87845861858582</v>
+        <v>11.42382464133817</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.8821364215329</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.997134036918363</v>
       </c>
       <c r="N13">
-        <v>5.373629302286822</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.86042795730015</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.411184281583862</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.86386401355323</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.4848137501031</v>
+        <v>27.50098340566554</v>
       </c>
       <c r="C14">
-        <v>20.1859875832631</v>
+        <v>19.95989035888136</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.285166136682</v>
+        <v>10.19527602427637</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>17.0013682529505</v>
+        <v>16.44325902500444</v>
       </c>
       <c r="H14">
-        <v>6.578279389883135</v>
+        <v>6.571623544019289</v>
       </c>
       <c r="I14">
-        <v>2.575706959669704</v>
+        <v>2.618761105707553</v>
       </c>
       <c r="J14">
-        <v>7.717946612352044</v>
+        <v>7.637319180962751</v>
       </c>
       <c r="K14">
-        <v>11.58815501294154</v>
+        <v>11.34082712118415</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.851768375310192</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.871239980946313</v>
       </c>
       <c r="N14">
-        <v>5.116762511340228</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.39493493533885</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.158519750310719</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.3937201792056</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.35874368269064</v>
+        <v>27.37691423498151</v>
       </c>
       <c r="C15">
-        <v>20.18777557186819</v>
+        <v>19.95296259877067</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.40477268389929</v>
+        <v>10.317222416409</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>16.38029389438979</v>
+        <v>15.84463145608063</v>
       </c>
       <c r="H15">
-        <v>6.81523067740409</v>
+        <v>6.807566482945347</v>
       </c>
       <c r="I15">
-        <v>2.552595747282979</v>
+        <v>2.600845337417784</v>
       </c>
       <c r="J15">
-        <v>7.639460272445908</v>
+        <v>7.649915034678237</v>
       </c>
       <c r="K15">
-        <v>11.57411657468624</v>
+        <v>11.3642582426111</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.863161041731797</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.884754356642684</v>
       </c>
       <c r="N15">
-        <v>5.065416011965961</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.24620057289971</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.110110020995213</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.24398757528103</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.48605663090678</v>
+        <v>26.51266572586353</v>
       </c>
       <c r="C16">
-        <v>19.58504264529453</v>
+        <v>19.44294666122908</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.17570167831935</v>
+        <v>10.12642697081186</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>16.65201215657402</v>
+        <v>15.74906570028555</v>
       </c>
       <c r="H16">
-        <v>6.624586706622924</v>
+        <v>6.609578890056736</v>
       </c>
       <c r="I16">
-        <v>2.593214170701103</v>
+        <v>2.538202911822458</v>
       </c>
       <c r="J16">
-        <v>7.784779345150546</v>
+        <v>7.995532789991912</v>
       </c>
       <c r="K16">
-        <v>11.89121961299664</v>
+        <v>11.66337795420561</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.978703652302295</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.18528133531623</v>
       </c>
       <c r="N16">
-        <v>5.060146889929438</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.93083130872075</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.121051784103243</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.93004314538752</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.8837408224209</v>
+        <v>25.91424028780413</v>
       </c>
       <c r="C17">
-        <v>18.99133033098037</v>
+        <v>18.94719724748963</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.698755798382882</v>
+        <v>9.676635421586573</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>18.17767353341483</v>
+        <v>16.89908614613589</v>
       </c>
       <c r="H17">
-        <v>5.911175107407826</v>
+        <v>5.889562677636247</v>
       </c>
       <c r="I17">
-        <v>2.672451305605945</v>
+        <v>2.604311463383958</v>
       </c>
       <c r="J17">
-        <v>8.08611612644315</v>
+        <v>8.331842417231229</v>
       </c>
       <c r="K17">
-        <v>12.24812935418321</v>
+        <v>11.95290831196743</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.12405308810454</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.462607942866176</v>
       </c>
       <c r="N17">
-        <v>5.178131202801922</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.9440871182627</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.248920705081499</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.94657216625384</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.46010787154665</v>
+        <v>25.49103068946347</v>
       </c>
       <c r="C18">
-        <v>18.32984890951426</v>
+        <v>18.41979355800959</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.043470890895428</v>
+        <v>9.038861920859661</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>21.12781953774802</v>
+        <v>19.26653933330066</v>
       </c>
       <c r="H18">
-        <v>4.695939556542138</v>
+        <v>4.66639190947199</v>
       </c>
       <c r="I18">
-        <v>2.695106124731166</v>
+        <v>2.619979871706952</v>
       </c>
       <c r="J18">
-        <v>8.603563992373903</v>
+        <v>8.768551168225997</v>
       </c>
       <c r="K18">
-        <v>12.85789418086949</v>
+        <v>12.39466780939069</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.40354170666135</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.852197723692998</v>
       </c>
       <c r="N18">
-        <v>5.494672736384438</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.2417135172997</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.572909168094956</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.25074483079364</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21904411079081</v>
+        <v>25.24739412603097</v>
       </c>
       <c r="C19">
-        <v>17.72531566142889</v>
+        <v>17.9663878968569</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.472642822034153</v>
+        <v>8.460635949647818</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>24.91066125426718</v>
+        <v>22.29128858815911</v>
       </c>
       <c r="H19">
-        <v>3.273764122174722</v>
+        <v>3.233559740882515</v>
       </c>
       <c r="I19">
-        <v>2.686263303450524</v>
+        <v>2.614375958056189</v>
       </c>
       <c r="J19">
-        <v>9.27161586425358</v>
+        <v>9.274299844170931</v>
       </c>
       <c r="K19">
-        <v>13.79994855183908</v>
+        <v>13.03849178255497</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.8454734415953</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.400186473991667</v>
       </c>
       <c r="N19">
-        <v>6.042430073354156</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.74029144180077</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.126870152587518</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.75806688733217</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.51161965700635</v>
+        <v>25.52882386057367</v>
       </c>
       <c r="C20">
-        <v>17.2533215400135</v>
+        <v>17.69494410925649</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.205560678186815</v>
+        <v>8.118025341457603</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>31.02483261994799</v>
+        <v>27.22906952788487</v>
       </c>
       <c r="H20">
-        <v>1.81750198891676</v>
+        <v>1.773263178479957</v>
       </c>
       <c r="I20">
-        <v>2.553483334627189</v>
+        <v>2.529206324365651</v>
       </c>
       <c r="J20">
-        <v>10.36598403685266</v>
+        <v>9.924452186380449</v>
       </c>
       <c r="K20">
-        <v>15.56578220853665</v>
+        <v>14.13986496093997</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.59931834708441</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.369776812755513</v>
       </c>
       <c r="N20">
-        <v>7.11530871130208</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.75705406188031</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.20275404239949</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.78870755235344</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.04624823977325</v>
+        <v>27.04486791056661</v>
       </c>
       <c r="C21">
-        <v>18.13975925659412</v>
+        <v>18.45657580851433</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.392481199458699</v>
+        <v>8.248148705003675</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>32.56703722253497</v>
+        <v>29.23436782226624</v>
       </c>
       <c r="H21">
-        <v>1.615766120646457</v>
+        <v>1.616496904691021</v>
       </c>
       <c r="I21">
-        <v>2.713493905589577</v>
+        <v>2.731882518131634</v>
       </c>
       <c r="J21">
-        <v>10.52364509446977</v>
+        <v>9.022345251574377</v>
       </c>
       <c r="K21">
-        <v>15.63725860768132</v>
+        <v>13.66532953907374</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.21004241766114</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.14174721895362</v>
       </c>
       <c r="N21">
-        <v>7.426958052041201</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.56559719844233</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.484757532413462</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.5946705972774</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.01464084380713</v>
+        <v>28.00120744248071</v>
       </c>
       <c r="C22">
-        <v>18.70966158719497</v>
+        <v>18.92962593851645</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.515130350379724</v>
+        <v>8.338793960234</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>33.43187792532932</v>
+        <v>30.51365433453083</v>
       </c>
       <c r="H22">
-        <v>1.7988259202852</v>
+        <v>1.772395526368077</v>
       </c>
       <c r="I22">
-        <v>2.867820288865722</v>
+        <v>2.854347636743238</v>
       </c>
       <c r="J22">
-        <v>10.60452219268182</v>
+        <v>8.429402712978405</v>
       </c>
       <c r="K22">
-        <v>15.6456922050717</v>
+        <v>13.30983009135348</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.93679465905402</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.960182846877411</v>
       </c>
       <c r="N22">
-        <v>7.573953704613902</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.03815829768517</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.61187378759204</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.0637949471155</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.50267031691132</v>
+        <v>27.49587112368239</v>
       </c>
       <c r="C23">
-        <v>18.38333520374524</v>
+        <v>18.68107976014746</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.451650456083486</v>
+        <v>8.293676985676136</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>33.09847754427155</v>
+        <v>29.83437274641827</v>
       </c>
       <c r="H23">
-        <v>1.702525362346636</v>
+        <v>1.691642405338311</v>
       </c>
       <c r="I23">
-        <v>2.781002786380411</v>
+        <v>2.784120362974385</v>
       </c>
       <c r="J23">
-        <v>10.58669524184629</v>
+        <v>8.850181297395448</v>
       </c>
       <c r="K23">
-        <v>15.68958410707761</v>
+        <v>13.57162576542534</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.12680725632346</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.121474764428511</v>
       </c>
       <c r="N23">
-        <v>7.494702299481153</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.78632087517598</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.545369872963681</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.815021671506</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47389385976265</v>
+        <v>25.49068330369377</v>
       </c>
       <c r="C24">
-        <v>17.14433676362713</v>
+        <v>17.60443343978276</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.206025519550707</v>
+        <v>8.111190852154051</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>31.64403604241913</v>
+        <v>27.7313049570582</v>
       </c>
       <c r="H24">
-        <v>1.796717906582402</v>
+        <v>1.75268673970247</v>
       </c>
       <c r="I24">
-        <v>2.53179109445485</v>
+        <v>2.518509007486879</v>
       </c>
       <c r="J24">
-        <v>10.48879208419802</v>
+        <v>10.02456242566574</v>
       </c>
       <c r="K24">
-        <v>15.79326477633911</v>
+        <v>14.30633717568978</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.71605063898182</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.507126304505762</v>
       </c>
       <c r="N24">
-        <v>7.189981949281783</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.79942587536652</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.278857597051269</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.83225648746304</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.094139584677</v>
+        <v>23.13193074266301</v>
       </c>
       <c r="C25">
-        <v>15.71846545507346</v>
+        <v>16.07345685336917</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.935217702583118</v>
+        <v>7.883327201977436</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>30.11185096385657</v>
+        <v>26.70684041829591</v>
       </c>
       <c r="H25">
-        <v>2.222341366962514</v>
+        <v>2.133655519861897</v>
       </c>
       <c r="I25">
-        <v>2.904662918335895</v>
+        <v>2.799351790301948</v>
       </c>
       <c r="J25">
-        <v>10.40668739552805</v>
+        <v>10.10824004981574</v>
       </c>
       <c r="K25">
-        <v>15.94025449434754</v>
+        <v>14.69471418418361</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.09140789544279</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.631296802020833</v>
       </c>
       <c r="N25">
-        <v>6.848439632402428</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.66157417615196</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.957388642478868</v>
       </c>
       <c r="Q25">
+        <v>13.68486712536217</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
